--- a/input_sap.xlsx
+++ b/input_sap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1424,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1547,6 +1547,15 @@
       <c r="K2" s="2">
         <v>100</v>
       </c>
+      <c r="N2" s="2">
+        <v>100</v>
+      </c>
+      <c r="O2" s="2">
+        <v>100</v>
+      </c>
+      <c r="P2" s="2">
+        <v>100</v>
+      </c>
       <c r="Q2" s="4" t="s">
         <v>21</v>
       </c>
@@ -1591,6 +1600,15 @@
       <c r="K3" s="2">
         <v>200</v>
       </c>
+      <c r="N3" s="2">
+        <v>100</v>
+      </c>
+      <c r="O3" s="2">
+        <v>100</v>
+      </c>
+      <c r="P3" s="2">
+        <v>100</v>
+      </c>
       <c r="Q3" s="4" t="s">
         <v>21</v>
       </c>
@@ -1635,6 +1653,15 @@
       <c r="K4" s="2">
         <v>300</v>
       </c>
+      <c r="N4" s="2">
+        <v>100</v>
+      </c>
+      <c r="O4" s="2">
+        <v>100</v>
+      </c>
+      <c r="P4" s="2">
+        <v>100</v>
+      </c>
       <c r="Q4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1679,6 +1706,15 @@
       <c r="K5" s="2">
         <v>400</v>
       </c>
+      <c r="N5" s="2">
+        <v>100</v>
+      </c>
+      <c r="O5" s="2">
+        <v>100</v>
+      </c>
+      <c r="P5" s="2">
+        <v>100</v>
+      </c>
       <c r="Q5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1723,6 +1759,15 @@
       <c r="K6" s="2">
         <v>500</v>
       </c>
+      <c r="N6" s="2">
+        <v>100</v>
+      </c>
+      <c r="O6" s="2">
+        <v>100</v>
+      </c>
+      <c r="P6" s="2">
+        <v>100</v>
+      </c>
       <c r="Q6" s="4" t="s">
         <v>21</v>
       </c>
@@ -1769,6 +1814,15 @@
       </c>
       <c r="K7" s="2">
         <v>600</v>
+      </c>
+      <c r="N7" s="2">
+        <v>100</v>
+      </c>
+      <c r="O7" s="2">
+        <v>100</v>
+      </c>
+      <c r="P7" s="2">
+        <v>100</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>21</v>

--- a/input_sap.xlsx
+++ b/input_sap.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carvaa/Projects/ProposalCalculator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravanini/WorkDocs/workspace/ProposalCalculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="Servers" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="83">
   <si>
     <t>Description</t>
   </si>
@@ -120,9 +120,6 @@
     <t>31/01/2017</t>
   </si>
   <si>
-    <t>standard</t>
-  </si>
-  <si>
     <t>Partial Upfront</t>
   </si>
   <si>
@@ -144,15 +141,6 @@
     <t>Linux</t>
   </si>
   <si>
-    <t>SQL Server Enterprise</t>
-  </si>
-  <si>
-    <t>SQL Std</t>
-  </si>
-  <si>
-    <t>SQL Web</t>
-  </si>
-  <si>
     <t>Server 1</t>
   </si>
   <si>
@@ -213,10 +201,82 @@
     <t>Apps</t>
   </si>
   <si>
-    <t>HANA OLTP</t>
-  </si>
-  <si>
     <t>S3 Backup(GB)</t>
+  </si>
+  <si>
+    <t>US East (Ohio)</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>APPS</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>US West (Oregon)</t>
+  </si>
+  <si>
+    <t>Convertible</t>
+  </si>
+  <si>
+    <t>ANY_DB</t>
+  </si>
+  <si>
+    <t>SQLStandard</t>
+  </si>
+  <si>
+    <t>US West (N. California)</t>
+  </si>
+  <si>
+    <t>HANA_OLTP</t>
+  </si>
+  <si>
+    <t>SQLWeb</t>
+  </si>
+  <si>
+    <t>HANA_OLAP</t>
+  </si>
+  <si>
+    <t>SQLEnterprise</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Mumbai)</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Seoul)</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Singapore)</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Sydney)</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Tokyo)</t>
+  </si>
+  <si>
+    <t>AWS GovCloud (US)</t>
+  </si>
+  <si>
+    <t>Canada (Central)</t>
+  </si>
+  <si>
+    <t>China (Beijing)</t>
+  </si>
+  <si>
+    <t>EU (Frankfurt)</t>
+  </si>
+  <si>
+    <t>EU (Ireland)</t>
+  </si>
+  <si>
+    <t>EU (London)</t>
+  </si>
+  <si>
+    <t>Valid Combinations for Purchasing Option</t>
   </si>
 </sst>
 </file>
@@ -226,10 +286,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -287,16 +354,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -304,26 +390,186 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1123,9 +1369,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="G1:S6" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="G1:S6"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table4" displayName="Table4" ref="G1:T17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="G1:T17"/>
+  <tableColumns count="14">
     <tableColumn id="1" name="Storage(GB)" dataDxfId="16"/>
     <tableColumn id="2" name="Volume Type" dataDxfId="15"/>
     <tableColumn id="3" name="IOPS"/>
@@ -1136,6 +1382,7 @@
     <tableColumn id="8" name="Offering Class" dataDxfId="11"/>
     <tableColumn id="9" name="Tenancy" dataDxfId="10"/>
     <tableColumn id="10" name="Operating System"/>
+    <tableColumn id="14" name="SAP Instance Type"/>
     <tableColumn id="11" name="Pre Installed S/W"/>
     <tableColumn id="12" name="Beginning" dataDxfId="9"/>
     <tableColumn id="13" name="End" dataDxfId="8"/>
@@ -1145,8 +1392,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:F6" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table5" displayName="Table5" ref="A1:F17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F17"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Description" dataDxfId="5"/>
     <tableColumn id="2" name="Region" dataDxfId="4"/>
@@ -1424,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P7"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1459,16 +1706,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
@@ -1498,10 +1745,10 @@
         <v>17</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>9</v>
@@ -1521,13 +1768,13 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -1569,18 +1816,18 @@
         <v>24</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -1622,18 +1869,18 @@
         <v>24</v>
       </c>
       <c r="U3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -1675,18 +1922,18 @@
         <v>24</v>
       </c>
       <c r="U4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -1728,18 +1975,18 @@
         <v>24</v>
       </c>
       <c r="U5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
@@ -1781,18 +2028,18 @@
         <v>24</v>
       </c>
       <c r="U6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
@@ -1837,7 +2084,7 @@
         <v>24</v>
       </c>
       <c r="U7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1851,18 +2098,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
@@ -1881,7 +2128,7 @@
     <col min="20" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1931,21 +2178,24 @@
         <v>12</v>
       </c>
       <c r="Q1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -1975,13 +2225,13 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
         <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>11</v>
@@ -1990,18 +2240,21 @@
         <v>28</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>29</v>
+        <v>60</v>
+      </c>
+      <c r="R2" t="s">
+        <v>61</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -2013,7 +2266,7 @@
         <v>100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I3">
         <v>1000</v>
@@ -2022,100 +2275,361 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="2">
+        <v>100</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s">
         <v>31</v>
       </c>
-      <c r="N3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="P4" t="s">
         <v>34</v>
       </c>
-      <c r="P3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="G4" s="2">
-        <v>100</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" t="s">
-        <v>35</v>
-      </c>
       <c r="Q4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="R4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G5" s="2">
         <v>500</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>69</v>
+      </c>
+      <c r="R5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="G6" s="2">
         <v>500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="Q7"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="P8"/>
       <c r="Q8"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R8"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="P9"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q9"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="P10"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q10"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="P11"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q11"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="P12"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q12"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P13"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q13"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="P14"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q14"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P15"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q15"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="P16"/>
-    </row>
-    <row r="17" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="Q16"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="I24" s="31"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="I26" s="31"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="I28" s="31"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="R29" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A19:D19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>

--- a/input_sap.xlsx
+++ b/input_sap.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="85">
   <si>
     <t>Description</t>
   </si>
@@ -198,9 +198,6 @@
     <t>Archive Logs/Local Backup(GB)</t>
   </si>
   <si>
-    <t>Apps</t>
-  </si>
-  <si>
     <t>S3 Backup(GB)</t>
   </si>
   <si>
@@ -277,6 +274,15 @@
   </si>
   <si>
     <t>Valid Combinations for Purchasing Option</t>
+  </si>
+  <si>
+    <t>reserved</t>
+  </si>
+  <si>
+    <t>partial Upfront</t>
+  </si>
+  <si>
+    <t>uS East (N. Virginia)</t>
   </si>
 </sst>
 </file>
@@ -536,15 +542,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -570,6 +567,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1339,8 +1345,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U1048575" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="A1:U1048575"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U1048576" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="A1:U1048576"/>
   <tableColumns count="21">
     <tableColumn id="1" name="Description" dataDxfId="39"/>
     <tableColumn id="2" name="Environment" dataDxfId="38"/>
@@ -1669,10 +1675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1748,7 +1754,7 @@
         <v>55</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>9</v>
@@ -1774,7 +1780,7 @@
         <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -1803,19 +1809,19 @@
       <c r="P2" s="2">
         <v>100</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="S2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1827,10 +1833,10 @@
         <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
         <v>4000</v>
@@ -1857,19 +1863,19 @@
         <v>100</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="T3" t="s">
         <v>24</v>
       </c>
       <c r="U3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -1880,10 +1886,10 @@
         <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2">
         <v>8000</v>
@@ -1891,9 +1897,6 @@
       <c r="G4" s="9">
         <v>0.1</v>
       </c>
-      <c r="I4" s="9">
-        <v>0.05</v>
-      </c>
       <c r="J4" s="2">
         <v>100</v>
       </c>
@@ -1910,16 +1913,16 @@
         <v>100</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="S4" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="T4" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="U4" t="s">
         <v>35</v>
@@ -1933,16 +1936,13 @@
         <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="2">
         <v>20</v>
-      </c>
-      <c r="E5" s="2">
-        <v>16000</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0.1</v>
       </c>
       <c r="I5" s="9">
         <v>0.05</v>
@@ -1963,19 +1963,19 @@
         <v>100</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S5" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="T5" t="s">
         <v>24</v>
       </c>
       <c r="U5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -1986,10 +1986,10 @@
         <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2">
         <v>32000</v>
@@ -2016,7 +2016,7 @@
         <v>100</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>22</v>
@@ -2025,10 +2025,10 @@
         <v>23</v>
       </c>
       <c r="T6" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="U6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -2039,10 +2039,10 @@
         <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2">
         <v>72000</v>
@@ -2072,20 +2072,27 @@
         <v>100</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S7" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="T7" t="s">
         <v>24</v>
       </c>
       <c r="U7" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="1"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2093,6 +2100,54 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Help!$Q$2:$Q$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C300</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Help!$B$2:$B$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D300</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Help!$K$2:$K$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q2:Q300</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Help!$L$2:$L$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>R2:R300</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Help!$M$2:$M$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>S2:S300</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Help!$N$2:$N$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>T2:T300</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Help!$P$2:$P$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>U2:U300</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2100,7 +2155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection sqref="A1:XFD29"/>
     </sheetView>
   </sheetViews>
@@ -2195,7 +2250,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -2231,7 +2286,7 @@
         <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>11</v>
@@ -2240,10 +2295,10 @@
         <v>28</v>
       </c>
       <c r="Q2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" t="s">
         <v>60</v>
-      </c>
-      <c r="R2" t="s">
-        <v>61</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>29</v>
@@ -2254,7 +2309,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -2284,7 +2339,7 @@
         <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -2293,15 +2348,15 @@
         <v>35</v>
       </c>
       <c r="Q3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" t="s">
         <v>64</v>
-      </c>
-      <c r="R3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="2">
         <v>100</v>
@@ -2316,10 +2371,10 @@
         <v>34</v>
       </c>
       <c r="Q4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4" t="s">
         <v>67</v>
-      </c>
-      <c r="R4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -2336,15 +2391,15 @@
         <v>36</v>
       </c>
       <c r="Q5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" t="s">
         <v>69</v>
-      </c>
-      <c r="R5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2">
         <v>500</v>
@@ -2356,13 +2411,13 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R7"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P8"/>
       <c r="Q8"/>
@@ -2370,7 +2425,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P9"/>
       <c r="Q9"/>
@@ -2378,7 +2433,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P10"/>
       <c r="Q10"/>
@@ -2386,7 +2441,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P11"/>
       <c r="Q11"/>
@@ -2394,7 +2449,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P12"/>
       <c r="Q12"/>
@@ -2402,7 +2457,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P13"/>
       <c r="Q13"/>
@@ -2410,7 +2465,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
@@ -2418,7 +2473,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P15"/>
       <c r="Q15"/>
@@ -2426,7 +2481,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P16"/>
       <c r="Q16"/>
@@ -2444,185 +2499,185 @@
       <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
+      <c r="A19" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="11" t="s">
         <v>15</v>
       </c>
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>59</v>
+      <c r="D22" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>59</v>
+      <c r="D23" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
+    <row r="24" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-      <c r="I24" s="31"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
+      <c r="D24" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
+      <c r="I24" s="28"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="25" t="s">
-        <v>59</v>
+      <c r="D25" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
+    <row r="26" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
-      <c r="I26" s="31"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
+      <c r="D26" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26"/>
+      <c r="I26" s="28"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="34" t="s">
-        <v>63</v>
+      <c r="D27" s="31" t="s">
+        <v>62</v>
       </c>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
+    <row r="28" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
-      <c r="I28" s="31"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
+      <c r="D28" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="26"/>
+      <c r="I28" s="28"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="38" t="s">
-        <v>63</v>
+      <c r="D29" s="35" t="s">
+        <v>62</v>
       </c>
       <c r="R29" s="1"/>
     </row>

--- a/input_sap.xlsx
+++ b/input_sap.xlsx
@@ -523,12 +523,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -577,9 +579,11 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
@@ -1678,7 +1682,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/input_sap.xlsx
+++ b/input_sap.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravanini/WorkDocs/workspace/ProposalCalculator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carvaa/Projects/ProposalCalculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Servers" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="83">
   <si>
     <t>Description</t>
   </si>
@@ -276,13 +276,7 @@
     <t>Valid Combinations for Purchasing Option</t>
   </si>
   <si>
-    <t>reserved</t>
-  </si>
-  <si>
     <t>partial Upfront</t>
-  </si>
-  <si>
-    <t>uS East (N. Virginia)</t>
   </si>
 </sst>
 </file>
@@ -532,7 +526,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -542,8 +536,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -569,6 +561,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1141,59 +1137,61 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -1681,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1693,16 +1691,16 @@
     <col min="4" max="4" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" style="37" customWidth="1"/>
     <col min="11" max="11" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.5" style="2" bestFit="1" customWidth="1"/>
@@ -1730,16 +1728,16 @@
       <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="34" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="36" t="s">
         <v>25</v>
       </c>
       <c r="K1" s="6" t="s">
@@ -1789,17 +1787,20 @@
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2">
-        <v>2000</v>
-      </c>
-      <c r="G2" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="I2" s="9">
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="35">
         <v>0.05</v>
       </c>
-      <c r="J2" s="2">
-        <v>100</v>
+      <c r="H2" s="2">
+        <v>4</v>
+      </c>
+      <c r="I2" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="J2" s="37">
+        <v>1</v>
       </c>
       <c r="K2" s="2">
         <v>100</v>
@@ -1840,19 +1841,22 @@
         <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4000</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="I3" s="9">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="35">
         <v>0.05</v>
       </c>
-      <c r="J3" s="2">
-        <v>100</v>
+      <c r="H3" s="2">
+        <v>8</v>
+      </c>
+      <c r="I3" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="J3" s="37">
+        <v>1</v>
       </c>
       <c r="K3" s="2">
         <v>200</v>
@@ -1866,8 +1870,8 @@
       <c r="P3" s="2">
         <v>100</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>82</v>
+      <c r="Q3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>22</v>
@@ -1893,16 +1897,22 @@
         <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="2">
-        <v>8000</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>100</v>
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>8</v>
+      </c>
+      <c r="G4" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="H4" s="2">
+        <v>16</v>
+      </c>
+      <c r="I4" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="J4" s="37">
+        <v>1</v>
       </c>
       <c r="K4" s="2">
         <v>300</v>
@@ -1916,14 +1926,14 @@
       <c r="P4" s="2">
         <v>100</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>82</v>
+      <c r="Q4" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="S4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T4" t="s">
         <v>58</v>
@@ -1943,16 +1953,22 @@
         <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
-        <v>20</v>
-      </c>
-      <c r="I5" s="9">
+        <v>16</v>
+      </c>
+      <c r="G5" s="35">
         <v>0.05</v>
       </c>
-      <c r="J5" s="2">
-        <v>100</v>
+      <c r="H5" s="2">
+        <v>32</v>
+      </c>
+      <c r="I5" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="J5" s="37">
+        <v>1</v>
       </c>
       <c r="K5" s="2">
         <v>400</v>
@@ -1966,14 +1982,14 @@
       <c r="P5" s="2">
         <v>100</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>82</v>
+      <c r="Q5" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T5" t="s">
         <v>24</v>
@@ -1993,19 +2009,22 @@
         <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="2">
-        <v>32000</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="I6" s="9">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>32</v>
+      </c>
+      <c r="G6" s="35">
         <v>0.05</v>
       </c>
-      <c r="J6" s="2">
-        <v>100</v>
+      <c r="H6" s="2">
+        <v>64</v>
+      </c>
+      <c r="I6" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="J6" s="37">
+        <v>1</v>
       </c>
       <c r="K6" s="2">
         <v>500</v>
@@ -2019,8 +2038,8 @@
       <c r="P6" s="2">
         <v>100</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>82</v>
+      <c r="Q6" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>22</v>
@@ -2046,22 +2065,22 @@
         <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="2">
-        <v>72000</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0.1</v>
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>64</v>
+      </c>
+      <c r="G7" s="35">
+        <v>0.05</v>
       </c>
       <c r="H7" s="2">
-        <v>900</v>
-      </c>
-      <c r="I7" s="9">
+        <v>128</v>
+      </c>
+      <c r="I7" s="35">
         <v>0.05</v>
       </c>
-      <c r="J7" s="2">
-        <v>100</v>
+      <c r="J7" s="37">
+        <v>1</v>
       </c>
       <c r="K7" s="2">
         <v>600</v>
@@ -2075,14 +2094,14 @@
       <c r="P7" s="2">
         <v>100</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>82</v>
+      <c r="Q7" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T7" t="s">
         <v>24</v>
@@ -2159,8 +2178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection sqref="A1:XFD29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2503,184 +2522,184 @@
       <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>15</v>
       </c>
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="16" t="s">
         <v>58</v>
       </c>
       <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="20" t="s">
         <v>58</v>
       </c>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
+    <row r="24" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="26"/>
-      <c r="I24" s="28"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="24"/>
+      <c r="I24" s="26"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="20" t="s">
         <v>58</v>
       </c>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+    <row r="26" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="26"/>
-      <c r="I26" s="28"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="I26" s="26"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="29" t="s">
         <v>62</v>
       </c>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
+    <row r="28" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="26"/>
-      <c r="I28" s="28"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="24"/>
+      <c r="I28" s="26"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="33" t="s">
         <v>62</v>
       </c>
       <c r="R29" s="1"/>

--- a/input_sap.xlsx
+++ b/input_sap.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carvaa/Projects/ProposalCalculator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravanini/WorkDocs/workspace/ProposalCalculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="Servers" sheetId="1" r:id="rId1"/>
@@ -1679,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:Q7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2125,7 +2125,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Help!$Q$2:$Q$5</xm:f>
@@ -2168,6 +2168,12 @@
           </x14:formula1>
           <xm:sqref>U2:U300</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Help!$H$2:$H$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:L300</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -2179,7 +2185,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/input_sap.xlsx
+++ b/input_sap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="Servers" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="82">
   <si>
     <t>Description</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>No Upfront</t>
-  </si>
-  <si>
-    <t>convertible</t>
   </si>
   <si>
     <t>Monthly Utilization</t>
@@ -1679,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1714,16 +1711,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
@@ -1738,7 +1735,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>16</v>
@@ -1753,10 +1750,10 @@
         <v>17</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>9</v>
@@ -1776,13 +1773,13 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -1815,21 +1812,21 @@
         <v>100</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -1868,24 +1865,24 @@
         <v>22</v>
       </c>
       <c r="S3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="T3" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -1897,7 +1894,7 @@
         <v>0.05</v>
       </c>
       <c r="H4" s="2">
-        <v>16</v>
+        <v>3000</v>
       </c>
       <c r="I4" s="35">
         <v>0.05</v>
@@ -1921,27 +1918,27 @@
         <v>21</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -1953,7 +1950,7 @@
         <v>0.05</v>
       </c>
       <c r="H5" s="2">
-        <v>32</v>
+        <v>3000</v>
       </c>
       <c r="I5" s="35">
         <v>0.05</v>
@@ -1977,27 +1974,27 @@
         <v>21</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="S5" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="T5" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
@@ -2033,27 +2030,27 @@
         <v>21</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S6" t="s">
         <v>23</v>
       </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
@@ -2092,13 +2089,13 @@
         <v>22</v>
       </c>
       <c r="S7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="U7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -2211,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>2</v>
@@ -2247,10 +2244,10 @@
         <v>12</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S1" s="8" t="s">
         <v>3</v>
@@ -2261,10 +2258,10 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -2282,7 +2279,7 @@
         <v>100</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="4">
         <v>5</v>
@@ -2294,36 +2291,36 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
         <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R2" t="s">
-        <v>60</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="T2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -2335,7 +2332,7 @@
         <v>100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3">
         <v>1000</v>
@@ -2344,51 +2341,51 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
         <v>62</v>
       </c>
-      <c r="O3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>63</v>
-      </c>
-      <c r="R3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2">
         <v>100</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" t="s">
         <v>66</v>
-      </c>
-      <c r="R4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -2399,39 +2396,39 @@
         <v>500</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" t="s">
         <v>68</v>
-      </c>
-      <c r="R5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="2">
         <v>500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R6"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R7"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P8"/>
       <c r="Q8"/>
@@ -2439,7 +2436,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P9"/>
       <c r="Q9"/>
@@ -2447,7 +2444,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P10"/>
       <c r="Q10"/>
@@ -2455,7 +2452,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P11"/>
       <c r="Q11"/>
@@ -2463,7 +2460,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P12"/>
       <c r="Q12"/>
@@ -2471,7 +2468,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P13"/>
       <c r="Q13"/>
@@ -2479,7 +2476,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
@@ -2487,7 +2484,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P15"/>
       <c r="Q15"/>
@@ -2495,7 +2492,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P16"/>
       <c r="Q16"/>
@@ -2503,7 +2500,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P17"/>
       <c r="Q17"/>
@@ -2514,7 +2511,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -2538,7 +2535,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
@@ -2550,13 +2547,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R22" s="1"/>
     </row>
@@ -2565,13 +2562,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R23" s="1"/>
     </row>
@@ -2580,13 +2577,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="24"/>
@@ -2608,10 +2605,10 @@
         <v>22</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R25" s="1"/>
     </row>
@@ -2623,10 +2620,10 @@
         <v>22</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="24"/>
@@ -2651,7 +2648,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R27" s="1"/>
     </row>
@@ -2663,10 +2660,10 @@
         <v>22</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="24"/>
@@ -2688,10 +2685,10 @@
         <v>22</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R29" s="1"/>
     </row>

--- a/input_sap.xlsx
+++ b/input_sap.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Servers" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="85">
   <si>
     <t>Description</t>
   </si>
@@ -39,12 +39,6 @@
     <t>Memory</t>
   </si>
   <si>
-    <t>Beginning</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
     <t>Instances</t>
   </si>
   <si>
@@ -105,18 +99,12 @@
     <t>Monthly Utilization</t>
   </si>
   <si>
-    <t>Pre Installed S/W</t>
-  </si>
-  <si>
     <t>Magnetic</t>
   </si>
   <si>
     <t>Windows</t>
   </si>
   <si>
-    <t>31/01/2017</t>
-  </si>
-  <si>
     <t>Partial Upfront</t>
   </si>
   <si>
@@ -165,115 +153,136 @@
     <t>SAPS</t>
   </si>
   <si>
+    <t>Server 3</t>
+  </si>
+  <si>
+    <t>Server 4</t>
+  </si>
+  <si>
+    <t>Server 5</t>
+  </si>
+  <si>
+    <t>Server 6</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>SAP Instance Type</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>PROD</t>
+  </si>
+  <si>
+    <t>Archive Logs/Local Backup(GB)</t>
+  </si>
+  <si>
+    <t>S3 Backup(GB)</t>
+  </si>
+  <si>
+    <t>US East (Ohio)</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>APPS</t>
+  </si>
+  <si>
+    <t>US West (Oregon)</t>
+  </si>
+  <si>
+    <t>Convertible</t>
+  </si>
+  <si>
+    <t>ANY_DB</t>
+  </si>
+  <si>
+    <t>US West (N. California)</t>
+  </si>
+  <si>
+    <t>HANA_OLTP</t>
+  </si>
+  <si>
+    <t>HANA_OLAP</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Mumbai)</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Seoul)</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Singapore)</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Sydney)</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Tokyo)</t>
+  </si>
+  <si>
+    <t>AWS GovCloud (US)</t>
+  </si>
+  <si>
+    <t>Canada (Central)</t>
+  </si>
+  <si>
+    <t>China (Beijing)</t>
+  </si>
+  <si>
+    <t>EU (Frankfurt)</t>
+  </si>
+  <si>
+    <t>EU (Ireland)</t>
+  </si>
+  <si>
+    <t>EU (London)</t>
+  </si>
+  <si>
     <t>Server 2</t>
   </si>
   <si>
-    <t>Server 3</t>
-  </si>
-  <si>
-    <t>Server 4</t>
-  </si>
-  <si>
-    <t>Server 5</t>
-  </si>
-  <si>
-    <t>Server 6</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>SAP Instance Type</t>
-  </si>
-  <si>
-    <t>DEV</t>
-  </si>
-  <si>
-    <t>PROD</t>
-  </si>
-  <si>
-    <t>Archive Logs/Local Backup(GB)</t>
-  </si>
-  <si>
-    <t>S3 Backup(GB)</t>
-  </si>
-  <si>
-    <t>US East (Ohio)</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>APPS</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>US West (Oregon)</t>
-  </si>
-  <si>
-    <t>Convertible</t>
-  </si>
-  <si>
-    <t>ANY_DB</t>
-  </si>
-  <si>
-    <t>SQLStandard</t>
-  </si>
-  <si>
-    <t>US West (N. California)</t>
-  </si>
-  <si>
-    <t>HANA_OLTP</t>
-  </si>
-  <si>
-    <t>SQLWeb</t>
-  </si>
-  <si>
-    <t>HANA_OLAP</t>
-  </si>
-  <si>
-    <t>SQLEnterprise</t>
-  </si>
-  <si>
-    <t>Asia Pacific (Mumbai)</t>
-  </si>
-  <si>
-    <t>Asia Pacific (Seoul)</t>
-  </si>
-  <si>
-    <t>Asia Pacific (Singapore)</t>
-  </si>
-  <si>
-    <t>Asia Pacific (Sydney)</t>
-  </si>
-  <si>
-    <t>Asia Pacific (Tokyo)</t>
-  </si>
-  <si>
-    <t>AWS GovCloud (US)</t>
-  </si>
-  <si>
-    <t>Canada (Central)</t>
-  </si>
-  <si>
-    <t>China (Beijing)</t>
-  </si>
-  <si>
-    <t>EU (Frankfurt)</t>
-  </si>
-  <si>
-    <t>EU (Ireland)</t>
-  </si>
-  <si>
-    <t>EU (London)</t>
-  </si>
-  <si>
-    <t>Valid Combinations for Purchasing Option</t>
-  </si>
-  <si>
-    <t>partial Upfront</t>
+    <t>Billing Option</t>
+  </si>
+  <si>
+    <t>On Demand (No Contract)</t>
+  </si>
+  <si>
+    <t>1 Yr No Upfront Reserved</t>
+  </si>
+  <si>
+    <t>1 Yr Partial Upfront Reserved</t>
+  </si>
+  <si>
+    <t>1 Yr All Upfront Reserved</t>
+  </si>
+  <si>
+    <t>3 Yr Partial Upfront Reserved</t>
+  </si>
+  <si>
+    <t>3 Yr All Upfront Reserved</t>
+  </si>
+  <si>
+    <t>3 Yr No Upfront Convertible</t>
+  </si>
+  <si>
+    <t>3 Yr Partial Upfront Convertible</t>
+  </si>
+  <si>
+    <t>3 Yr All Upfront Convertible</t>
+  </si>
+  <si>
+    <t>Server 7</t>
+  </si>
+  <si>
+    <t>Server 8</t>
+  </si>
+  <si>
+    <t>Server 9</t>
   </si>
 </sst>
 </file>
@@ -283,17 +292,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -352,14 +354,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,18 +369,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -388,200 +383,81 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="39">
     <dxf>
       <font>
         <b val="0"/>
@@ -599,6 +475,24 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -740,25 +634,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -919,60 +794,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1339,44 +1160,44 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U1048576" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="A1:U1048576"/>
-  <tableColumns count="21">
-    <tableColumn id="1" name="Description" dataDxfId="39"/>
-    <tableColumn id="2" name="Environment" dataDxfId="38"/>
-    <tableColumn id="19" name="SAP Instance Type" dataDxfId="37"/>
-    <tableColumn id="3" name="Region" dataDxfId="36"/>
-    <tableColumn id="5" name="SAPS" dataDxfId="35"/>
-    <tableColumn id="4" name="CPU" dataDxfId="34"/>
-    <tableColumn id="6" name="CPU Tolerance" dataDxfId="33" dataCellStyle="Percent"/>
-    <tableColumn id="17" name="Memory" dataDxfId="32"/>
-    <tableColumn id="7" name="Memory Tolerance" dataDxfId="31" dataCellStyle="Percent"/>
-    <tableColumn id="8" name="Monthly Utilization" dataDxfId="30"/>
-    <tableColumn id="9" name="Storage(GB)" dataDxfId="29"/>
-    <tableColumn id="10" name="Volume Type" dataDxfId="28"/>
-    <tableColumn id="11" name="IOPS" dataDxfId="27"/>
-    <tableColumn id="12" name="Snapshot(GB)" dataDxfId="26"/>
-    <tableColumn id="20" name="Archive Logs/Local Backup(GB)" dataDxfId="25"/>
-    <tableColumn id="21" name="S3 Backup(GB)" dataDxfId="24"/>
-    <tableColumn id="13" name="Term Type" dataDxfId="23"/>
-    <tableColumn id="14" name="Lease Contract Length" dataDxfId="22"/>
-    <tableColumn id="15" name="Purchase Option" dataDxfId="21"/>
-    <tableColumn id="16" name="Offering Class" dataDxfId="20"/>
-    <tableColumn id="18" name="Operating System" dataDxfId="19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:R1048576" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A1:R1048576"/>
+  <tableColumns count="18">
+    <tableColumn id="1" name="Description" dataDxfId="36"/>
+    <tableColumn id="2" name="Environment" dataDxfId="35"/>
+    <tableColumn id="19" name="SAP Instance Type" dataDxfId="34"/>
+    <tableColumn id="3" name="Region" dataDxfId="33"/>
+    <tableColumn id="5" name="SAPS" dataDxfId="32"/>
+    <tableColumn id="4" name="CPU" dataDxfId="31"/>
+    <tableColumn id="6" name="CPU Tolerance" dataDxfId="30" dataCellStyle="Percent"/>
+    <tableColumn id="17" name="Memory" dataDxfId="29"/>
+    <tableColumn id="7" name="Memory Tolerance" dataDxfId="28" dataCellStyle="Percent"/>
+    <tableColumn id="8" name="Monthly Utilization" dataDxfId="27"/>
+    <tableColumn id="9" name="Storage(GB)" dataDxfId="26"/>
+    <tableColumn id="10" name="Volume Type" dataDxfId="25"/>
+    <tableColumn id="11" name="IOPS" dataDxfId="24"/>
+    <tableColumn id="12" name="Snapshot(GB)" dataDxfId="23"/>
+    <tableColumn id="20" name="Archive Logs/Local Backup(GB)" dataDxfId="22"/>
+    <tableColumn id="21" name="S3 Backup(GB)" dataDxfId="21"/>
+    <tableColumn id="18" name="Operating System" dataDxfId="20"/>
+    <tableColumn id="22" name="Billing Option" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table4" displayName="Table4" ref="G1:T17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="G1:T17"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table4" displayName="Table4" ref="H1:S17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="H1:S17"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="Storage(GB)" dataDxfId="16"/>
     <tableColumn id="2" name="Volume Type" dataDxfId="15"/>
     <tableColumn id="3" name="IOPS"/>
@@ -1388,19 +1209,18 @@
     <tableColumn id="9" name="Tenancy" dataDxfId="10"/>
     <tableColumn id="10" name="Operating System"/>
     <tableColumn id="14" name="SAP Instance Type"/>
-    <tableColumn id="11" name="Pre Installed S/W"/>
-    <tableColumn id="12" name="Beginning" dataDxfId="9"/>
-    <tableColumn id="13" name="End" dataDxfId="8"/>
+    <tableColumn id="11" name="Billing Option" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table5" displayName="Table5" ref="A1:F17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F17"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Description" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table5" displayName="Table5" ref="A1:G17" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G17"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Description" dataDxfId="6"/>
+    <tableColumn id="7" name="Environment" dataDxfId="5"/>
     <tableColumn id="2" name="Region" dataDxfId="4"/>
     <tableColumn id="3" name="Instances" dataDxfId="3"/>
     <tableColumn id="4" name="CPU" dataDxfId="2"/>
@@ -1674,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1688,120 +1508,111 @@
     <col min="4" max="4" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" style="37" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" style="15" customWidth="1"/>
     <col min="11" max="11" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.83203125" style="2"/>
+    <col min="17" max="17" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>6</v>
+      <c r="G1" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>24</v>
+      <c r="I1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>2</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="13">
         <v>0.05</v>
       </c>
       <c r="H2" s="2">
         <v>4</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="13">
         <v>0.05</v>
       </c>
-      <c r="J2" s="37">
+      <c r="J2" s="15">
         <v>1</v>
       </c>
       <c r="K2" s="2">
         <v>100</v>
       </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="N2" s="2">
         <v>100</v>
       </c>
@@ -1812,45 +1623,48 @@
         <v>100</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2">
         <v>4</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="13">
         <v>0.05</v>
       </c>
       <c r="H3" s="2">
         <v>8</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="13">
         <v>0.05</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="15">
         <v>1</v>
       </c>
       <c r="K3" s="2">
         <v>200</v>
       </c>
+      <c r="L3" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="N3" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O3" s="2">
         <v>100</v>
@@ -1859,54 +1673,50 @@
         <v>100</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" t="s">
-        <v>61</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="S3"/>
+      <c r="T3"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2">
-        <v>8</v>
-      </c>
-      <c r="G4" s="35">
+        <v>128</v>
+      </c>
+      <c r="G4" s="13">
         <v>0.05</v>
       </c>
       <c r="H4" s="2">
-        <v>3000</v>
-      </c>
-      <c r="I4" s="35">
+        <v>2000</v>
+      </c>
+      <c r="I4" s="13">
         <v>0.05</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="15">
         <v>1</v>
       </c>
       <c r="K4" s="2">
         <v>300</v>
       </c>
+      <c r="L4" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="N4" s="2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O4" s="2">
         <v>100</v>
@@ -1915,54 +1725,48 @@
         <v>100</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" t="s">
-        <v>81</v>
-      </c>
-      <c r="T4" t="s">
-        <v>57</v>
-      </c>
-      <c r="U4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2">
-        <v>16</v>
-      </c>
-      <c r="G5" s="35">
+        <v>128</v>
+      </c>
+      <c r="G5" s="13">
         <v>0.05</v>
       </c>
       <c r="H5" s="2">
         <v>3000</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="13">
         <v>0.05</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="15">
         <v>1</v>
       </c>
       <c r="K5" s="2">
         <v>400</v>
       </c>
+      <c r="L5" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="N5" s="2">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="O5" s="2">
         <v>100</v>
@@ -1971,54 +1775,48 @@
         <v>100</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5" t="s">
-        <v>61</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2">
-        <v>32</v>
-      </c>
-      <c r="G6" s="35">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20000</v>
+      </c>
+      <c r="G6" s="13">
         <v>0.05</v>
       </c>
       <c r="H6" s="2">
         <v>64</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="13">
         <v>0.05</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="15">
         <v>1</v>
       </c>
       <c r="K6" s="2">
         <v>500</v>
       </c>
+      <c r="L6" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="N6" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="O6" s="2">
         <v>100</v>
@@ -2027,54 +1825,48 @@
         <v>100</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" t="s">
-        <v>57</v>
-      </c>
-      <c r="U6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2">
-        <v>64</v>
-      </c>
-      <c r="G7" s="35">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20000</v>
+      </c>
+      <c r="G7" s="13">
         <v>0.05</v>
       </c>
       <c r="H7" s="2">
         <v>128</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="13">
         <v>0.05</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="15">
         <v>1</v>
       </c>
       <c r="K7" s="2">
         <v>600</v>
       </c>
+      <c r="L7" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="N7" s="2">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="O7" s="2">
         <v>100</v>
@@ -2083,27 +1875,161 @@
         <v>100</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2">
+        <v>20000</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="H8" s="2">
+        <v>32</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="J8" s="15">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>700</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="2">
+        <v>700</v>
+      </c>
+      <c r="O8" s="2">
+        <v>100</v>
+      </c>
+      <c r="P8" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2">
+        <v>20000</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="H9" s="2">
+        <v>32</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="J9" s="15">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>800</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="2">
+        <v>800</v>
+      </c>
+      <c r="O9" s="2">
+        <v>100</v>
+      </c>
+      <c r="P9" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2">
+        <v>20000</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="H10" s="2">
+        <v>32</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>900</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="2">
+        <v>900</v>
+      </c>
+      <c r="O10" s="2">
+        <v>100</v>
+      </c>
+      <c r="P10" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="T7" t="s">
-        <v>61</v>
-      </c>
-      <c r="U7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="Q8" s="4"/>
-      <c r="R8" s="1"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2113,48 +2039,54 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Help!$Q$2:$Q$5</xm:f>
+            <xm:f>Help!$R$2:$R$5</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C300</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Help!$B$2:$B$17</xm:f>
+            <xm:f>Help!$C$2:$C$17</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D300</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Help!$K$2:$K$3</xm:f>
+            <xm:f>Help!$N$2:$N$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>S3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Help!$O$2:$O$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>T3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Help!$Q$2:$Q$5</xm:f>
           </x14:formula1>
           <xm:sqref>Q2:Q300</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Help!$L$2:$L$3</xm:f>
+            <xm:f>Help!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>R2:R300</xm:sqref>
+          <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Help!$M$2:$M$4</xm:f>
+            <xm:f>Help!$I$2:$I$6</xm:f>
           </x14:formula1>
-          <xm:sqref>S2:S300</xm:sqref>
+          <xm:sqref>L2:L1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Help!$N$2:$N$3</xm:f>
+            <xm:f>Help!$S$2:$S$10</xm:f>
           </x14:formula1>
-          <xm:sqref>T2:T300</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Help!$P$2:$P$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>U2:U300</xm:sqref>
+          <xm:sqref>R2:R1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2164,538 +2096,400 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.1640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.83203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" customWidth="1"/>
-    <col min="19" max="19" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="F1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>100</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4">
+        <v>100</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="4">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4">
+        <v>50</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="7" t="s">
+      <c r="Q2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="O3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="2">
+        <v>100</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2">
+        <v>500</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>100</v>
-      </c>
-      <c r="F2" s="4">
-        <v>4</v>
-      </c>
-      <c r="G2" s="4">
-        <v>100</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="4">
-        <v>5</v>
-      </c>
-      <c r="J2" s="4">
-        <v>50</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="Q5" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="R5" t="s">
         <v>59</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="S5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="2">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>50</v>
-      </c>
-      <c r="G3" s="2">
-        <v>100</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3">
-        <v>1000</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="H6" s="2">
+        <v>500</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="S7" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="R3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="2">
-        <v>100</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>65</v>
-      </c>
-      <c r="R4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2">
-        <v>500</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="2">
-        <v>500</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R7"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P9"/>
+      <c r="S8" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="Q9"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P10"/>
+      <c r="R9"/>
+      <c r="S9" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="Q10"/>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P11"/>
+      <c r="R10"/>
+      <c r="S10" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="Q11"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P12"/>
+      <c r="R11"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="Q12"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P13"/>
+      <c r="R12"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="Q13"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P14"/>
+      <c r="R13"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C14" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="Q14"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P15"/>
+      <c r="R14"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C15" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="Q15"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="P16"/>
+      <c r="R15"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C16" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="Q16"/>
-      <c r="R16" s="1"/>
+      <c r="R16"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P17"/>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="Q17"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R18" s="1"/>
+      <c r="R17"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24"/>
-      <c r="I24" s="26"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="24"/>
-      <c r="I26" s="26"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="R27" s="1"/>
-    </row>
-    <row r="28" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="24"/>
-      <c r="I28" s="26"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="R29" s="1"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="24" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="G24" s="9"/>
+      <c r="J24" s="11"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+    </row>
+    <row r="26" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="G26" s="9"/>
+      <c r="J26" s="11"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+    </row>
+    <row r="28" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="G28" s="9"/>
+      <c r="J28" s="11"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A19:D19"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>

--- a/input_sap.xlsx
+++ b/input_sap.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carvaa/Projects/ProposalCalculator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravanini/WorkDocs/workspace/ProposalCalculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="Servers" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="82">
   <si>
     <t>Description</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Monthly Utilization</t>
   </si>
   <si>
-    <t>Magnetic</t>
-  </si>
-  <si>
     <t>Windows</t>
   </si>
   <si>
@@ -136,12 +133,6 @@
   </si>
   <si>
     <t>General Purpose</t>
-  </si>
-  <si>
-    <t>Throughput Optimized HDD</t>
-  </si>
-  <si>
-    <t>Cold HDD</t>
   </si>
   <si>
     <t>OnDemand</t>
@@ -1497,7 +1488,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1528,16 +1519,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
@@ -1567,27 +1558,27 @@
         <v>15</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -1611,7 +1602,7 @@
         <v>100</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N2" s="2">
         <v>100</v>
@@ -1623,21 +1614,21 @@
         <v>100</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -1661,7 +1652,7 @@
         <v>200</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" s="2">
         <v>200</v>
@@ -1673,23 +1664,23 @@
         <v>100</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="S3"/>
       <c r="T3"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -1713,7 +1704,7 @@
         <v>300</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N4" s="2">
         <v>300</v>
@@ -1725,21 +1716,21 @@
         <v>100</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -1763,7 +1754,7 @@
         <v>400</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N5" s="2">
         <v>400</v>
@@ -1775,21 +1766,21 @@
         <v>100</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -1813,7 +1804,7 @@
         <v>500</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="2">
         <v>500</v>
@@ -1825,21 +1816,21 @@
         <v>100</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -1863,7 +1854,7 @@
         <v>600</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N7" s="2">
         <v>600</v>
@@ -1875,21 +1866,21 @@
         <v>100</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
@@ -1913,7 +1904,7 @@
         <v>700</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N8" s="2">
         <v>700</v>
@@ -1925,21 +1916,21 @@
         <v>100</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -1963,7 +1954,7 @@
         <v>800</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N9" s="2">
         <v>800</v>
@@ -1975,21 +1966,21 @@
         <v>100</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>
@@ -2013,7 +2004,7 @@
         <v>900</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N10" s="2">
         <v>900</v>
@@ -2025,10 +2016,10 @@
         <v>100</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R10" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2078,15 +2069,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Help!$I$2:$I$6</xm:f>
+            <xm:f>Help!$S$2:$S$10</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L1048576</xm:sqref>
+          <xm:sqref>R2:R1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Help!$S$2:$S$10</xm:f>
+            <xm:f>Help!$I$2:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>R2:R1048576</xm:sqref>
+          <xm:sqref>L2:L1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2099,7 +2090,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2131,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>6</v>
@@ -2179,21 +2170,21 @@
         <v>10</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S1" s="22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -2210,8 +2201,8 @@
       <c r="H2" s="4">
         <v>100</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>23</v>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="J2" s="4">
         <v>5</v>
@@ -2223,33 +2214,33 @@
         <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
         <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
@@ -2261,7 +2252,7 @@
         <v>100</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3">
         <v>1000</v>
@@ -2270,54 +2261,51 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
         <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="S3" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2">
         <v>100</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -2327,116 +2315,110 @@
       <c r="H5" s="2">
         <v>500</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="Q5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H6" s="2">
         <v>500</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="S6" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q8"/>
       <c r="R8"/>
       <c r="S8" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q9"/>
       <c r="R9"/>
       <c r="S9" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q11"/>
       <c r="R11"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q12"/>
       <c r="R12"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q13"/>
       <c r="R13"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q14"/>
       <c r="R14"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q15"/>
       <c r="R15"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q16"/>
       <c r="R16"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q17"/>
       <c r="R17"/>

--- a/input_sap.xlsx
+++ b/input_sap.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="86">
   <si>
     <t>Description</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>Server 9</t>
+  </si>
+  <si>
+    <t>3 Yr No Upfront Reserved</t>
   </si>
 </sst>
 </file>
@@ -411,7 +414,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -435,9 +438,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="15">
@@ -1496,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2084,7 +2084,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Help!$S$2:$S$10</xm:f>
+            <xm:f>Help!$S$2:$S$11</xm:f>
           </x14:formula1>
           <xm:sqref>R2:R1048576</xm:sqref>
         </x14:dataValidation>
@@ -2098,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2181,7 +2181,7 @@
       <c r="R1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="21" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2351,15 +2351,15 @@
         <v>37</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>78</v>
+      <c r="S7" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -2368,8 +2368,8 @@
       </c>
       <c r="Q8"/>
       <c r="R8"/>
-      <c r="S8" s="19" t="s">
-        <v>79</v>
+      <c r="S8" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -2378,8 +2378,8 @@
       </c>
       <c r="Q9"/>
       <c r="R9"/>
-      <c r="S9" s="2" t="s">
-        <v>80</v>
+      <c r="S9" s="20" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -2388,8 +2388,8 @@
       </c>
       <c r="Q10"/>
       <c r="R10"/>
-      <c r="S10" s="21" t="s">
-        <v>81</v>
+      <c r="S10" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -2398,6 +2398,9 @@
       </c>
       <c r="Q11"/>
       <c r="R11"/>
+      <c r="S11" s="20" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">

--- a/input_sap.xlsx
+++ b/input_sap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="85">
   <si>
     <t>Description</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>Server 10</t>
+  </si>
+  <si>
+    <t>HANA_B1</t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1494,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1602,13 +1605,13 @@
         <v>1</v>
       </c>
       <c r="K2" s="2">
-        <v>100</v>
+        <v>1000.5</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="N2" s="2">
-        <v>100</v>
+        <v>2000.5</v>
       </c>
       <c r="O2" s="2">
         <v>100</v>
@@ -2084,12 +2087,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Help!$R$2:$R$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C300</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Help!$C$2:$C$17</xm:f>
@@ -2132,6 +2129,12 @@
           </x14:formula1>
           <xm:sqref>L1:L1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Help!$R$2:$R$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -2142,8 +2145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2385,6 +2388,9 @@
       <c r="H6" s="2">
         <v>500</v>
       </c>
+      <c r="R6" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="S6" s="19" t="s">
         <v>82</v>
       </c>

--- a/input_sap.xlsx
+++ b/input_sap.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carvaa/Projects/ProposalCalculator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravanini/WorkDocs/workspace/ProposalCalculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060"/>
   </bookViews>
   <sheets>
     <sheet name="Servers" sheetId="1" r:id="rId1"/>
     <sheet name="Help" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -304,6 +304,7 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,12 +327,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -339,11 +342,13 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,6 +362,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -394,7 +400,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -410,8 +416,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -436,20 +448,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
@@ -880,61 +899,61 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1493,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1509,10 +1528,10 @@
     <col min="8" max="8" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.83203125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" style="22" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.5" style="2" bestFit="1" customWidth="1"/>
@@ -1604,13 +1623,13 @@
       <c r="J2" s="15">
         <v>1</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="22">
         <v>1000.5</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="22">
         <v>2000.5</v>
       </c>
       <c r="O2" s="2">
@@ -1654,13 +1673,13 @@
       <c r="J3" s="15">
         <v>1</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="22">
         <v>200</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="22">
         <v>200</v>
       </c>
       <c r="O3" s="2">
@@ -1706,13 +1725,13 @@
       <c r="J4" s="15">
         <v>1</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="22">
         <v>300</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="22">
         <v>300</v>
       </c>
       <c r="O4" s="2">
@@ -1756,13 +1775,13 @@
       <c r="J5" s="15">
         <v>1</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="22">
         <v>400</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="22">
         <v>400</v>
       </c>
       <c r="O5" s="2">
@@ -1806,13 +1825,13 @@
       <c r="J6" s="15">
         <v>1</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="22">
         <v>500</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="22">
         <v>500</v>
       </c>
       <c r="O6" s="2">
@@ -1856,13 +1875,13 @@
       <c r="J7" s="15">
         <v>1</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="22">
         <v>500</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="22">
         <v>500</v>
       </c>
       <c r="O7" s="2">
@@ -1906,13 +1925,13 @@
       <c r="J8" s="15">
         <v>1</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="22">
         <v>600</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="22">
         <v>600</v>
       </c>
       <c r="O8" s="2">
@@ -1956,13 +1975,13 @@
       <c r="J9" s="15">
         <v>1</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="22">
         <v>700</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="22">
         <v>700</v>
       </c>
       <c r="O9" s="2">
@@ -2006,13 +2025,13 @@
       <c r="J10" s="15">
         <v>1</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="22">
         <v>800</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="22">
         <v>800</v>
       </c>
       <c r="O10" s="2">
@@ -2056,13 +2075,13 @@
       <c r="J11" s="15">
         <v>1</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="22">
         <v>900</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="22">
         <v>900</v>
       </c>
       <c r="O11" s="2">

--- a/input_sap.xlsx
+++ b/input_sap.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="86">
   <si>
     <t>Description</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>HANA_B1</t>
+  </si>
+  <si>
+    <t>Memory(GB)</t>
   </si>
 </sst>
 </file>
@@ -863,6 +866,78 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -881,24 +956,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -917,25 +974,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -989,79 +1046,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1194,7 +1197,7 @@
     <tableColumn id="5" name="SAPS" dataDxfId="32"/>
     <tableColumn id="4" name="CPU" dataDxfId="31"/>
     <tableColumn id="6" name="CPU Tolerance" dataDxfId="30" dataCellStyle="Percent"/>
-    <tableColumn id="17" name="Memory" dataDxfId="29"/>
+    <tableColumn id="17" name="Memory(GB)" dataDxfId="29"/>
     <tableColumn id="7" name="Memory Tolerance" dataDxfId="28" dataCellStyle="Percent"/>
     <tableColumn id="8" name="Monthly Utilization" dataDxfId="27"/>
     <tableColumn id="9" name="Storage(GB)" dataDxfId="26"/>
@@ -1512,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1522,18 +1525,18 @@
     <col min="2" max="2" width="14.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.83203125" style="15" customWidth="1"/>
     <col min="11" max="11" width="13.83203125" style="22" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" style="22" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.5" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="8.83203125" style="2"/>
@@ -1562,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>5</v>
@@ -1608,13 +1611,13 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="22">
         <v>2</v>
       </c>
       <c r="G2" s="13">
         <v>0.05</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="22">
         <v>4</v>
       </c>
       <c r="I2" s="13">
@@ -1632,10 +1635,10 @@
       <c r="N2" s="22">
         <v>2000.5</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="22">
         <v>100</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="22">
         <v>100</v>
       </c>
       <c r="Q2" s="2" t="s">
@@ -1658,13 +1661,13 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="22">
         <v>4</v>
       </c>
       <c r="G3" s="13">
         <v>0.05</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="22">
         <v>8</v>
       </c>
       <c r="I3" s="13">
@@ -1682,10 +1685,10 @@
       <c r="N3" s="22">
         <v>200</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="22">
         <v>100</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="22">
         <v>100</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -1710,13 +1713,13 @@
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="22">
         <v>128</v>
       </c>
       <c r="G4" s="13">
         <v>0.05</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="22">
         <v>2000</v>
       </c>
       <c r="I4" s="13">
@@ -1734,10 +1737,10 @@
       <c r="N4" s="22">
         <v>300</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="22">
         <v>100</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="22">
         <v>100</v>
       </c>
       <c r="Q4" s="2" t="s">
@@ -1760,13 +1763,13 @@
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="22">
         <v>128</v>
       </c>
       <c r="G5" s="13">
         <v>0.05</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="22">
         <v>3000</v>
       </c>
       <c r="I5" s="13">
@@ -1784,10 +1787,10 @@
       <c r="N5" s="22">
         <v>400</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="22">
         <v>100</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="22">
         <v>100</v>
       </c>
       <c r="Q5" s="2" t="s">
@@ -1810,13 +1813,13 @@
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="22">
         <v>6000</v>
       </c>
       <c r="G6" s="13">
         <v>0.05</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="22">
         <v>64</v>
       </c>
       <c r="I6" s="13">
@@ -1834,10 +1837,10 @@
       <c r="N6" s="22">
         <v>500</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="22">
         <v>100</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="22">
         <v>100</v>
       </c>
       <c r="Q6" s="2" t="s">
@@ -1860,13 +1863,13 @@
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="22">
         <v>6000</v>
       </c>
       <c r="G7" s="13">
         <v>0.05</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="22">
         <v>64</v>
       </c>
       <c r="I7" s="13">
@@ -1884,10 +1887,10 @@
       <c r="N7" s="22">
         <v>500</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="22">
         <v>100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="22">
         <v>100</v>
       </c>
       <c r="Q7" s="2" t="s">
@@ -1910,13 +1913,13 @@
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="22">
         <v>5000</v>
       </c>
       <c r="G8" s="13">
         <v>0.05</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="22">
         <v>128</v>
       </c>
       <c r="I8" s="13">
@@ -1934,10 +1937,10 @@
       <c r="N8" s="22">
         <v>600</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="22">
         <v>100</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="22">
         <v>100</v>
       </c>
       <c r="Q8" s="2" t="s">
@@ -1960,13 +1963,13 @@
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="22">
         <v>5000</v>
       </c>
       <c r="G9" s="13">
         <v>0.05</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="22">
         <v>32</v>
       </c>
       <c r="I9" s="13">
@@ -1984,10 +1987,10 @@
       <c r="N9" s="22">
         <v>700</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="22">
         <v>100</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="22">
         <v>100</v>
       </c>
       <c r="Q9" s="2" t="s">
@@ -2010,13 +2013,13 @@
       <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="22">
         <v>5000</v>
       </c>
       <c r="G10" s="13">
         <v>0.05</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="22">
         <v>32</v>
       </c>
       <c r="I10" s="13">
@@ -2034,10 +2037,10 @@
       <c r="N10" s="22">
         <v>800</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="22">
         <v>100</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="22">
         <v>100</v>
       </c>
       <c r="Q10" s="2" t="s">
@@ -2060,13 +2063,13 @@
       <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="22">
         <v>5000</v>
       </c>
       <c r="G11" s="13">
         <v>0.05</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="22">
         <v>32</v>
       </c>
       <c r="I11" s="13">
@@ -2084,10 +2087,10 @@
       <c r="N11" s="22">
         <v>900</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="22">
         <v>100</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="22">
         <v>100</v>
       </c>
       <c r="Q11" s="2" t="s">

--- a/input_sap.xlsx
+++ b/input_sap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14000"/>
   </bookViews>
   <sheets>
     <sheet name="Servers" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,6 @@
     <t>SUSE</t>
   </si>
   <si>
-    <t>Linux</t>
-  </si>
-  <si>
     <t>Server 1</t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>Memory(GB)</t>
+  </si>
+  <si>
+    <t>BYOL</t>
   </si>
 </sst>
 </file>
@@ -1187,8 +1187,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:R1048576" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
-  <autoFilter ref="A1:R1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:R1048574" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A1:R1048574"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Description" dataDxfId="36"/>
     <tableColumn id="2" name="Environment" dataDxfId="35"/>
@@ -1515,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1547,16 +1547,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>5</v>
@@ -1586,27 +1586,27 @@
         <v>15</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -1630,7 +1630,7 @@
         <v>1000.5</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N2" s="22">
         <v>2000.5</v>
@@ -1645,18 +1645,18 @@
         <v>29</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -1680,7 +1680,7 @@
         <v>200</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N3" s="22">
         <v>200</v>
@@ -1695,20 +1695,20 @@
         <v>29</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S3"/>
       <c r="T3"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -1732,7 +1732,7 @@
         <v>300</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N4" s="22">
         <v>300</v>
@@ -1747,18 +1747,18 @@
         <v>29</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -1782,7 +1782,7 @@
         <v>400</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N5" s="22">
         <v>400</v>
@@ -1797,18 +1797,18 @@
         <v>29</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -1832,7 +1832,7 @@
         <v>500</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N6" s="22">
         <v>500</v>
@@ -1847,18 +1847,18 @@
         <v>29</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -1882,7 +1882,7 @@
         <v>500</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7" s="22">
         <v>500</v>
@@ -1897,18 +1897,18 @@
         <v>29</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
@@ -1932,7 +1932,7 @@
         <v>600</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N8" s="22">
         <v>600</v>
@@ -1947,18 +1947,18 @@
         <v>29</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -1982,7 +1982,7 @@
         <v>700</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N9" s="22">
         <v>700</v>
@@ -1997,18 +1997,18 @@
         <v>29</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>
@@ -2032,7 +2032,7 @@
         <v>800</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N10" s="22">
         <v>800</v>
@@ -2047,18 +2047,18 @@
         <v>29</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
@@ -2082,7 +2082,7 @@
         <v>900</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N11" s="22">
         <v>900</v>
@@ -2097,7 +2097,7 @@
         <v>29</v>
       </c>
       <c r="R11" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2109,12 +2109,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Help!$C$2:$C$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D300</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Help!$N$2:$N$4</xm:f>
@@ -2129,33 +2123,39 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
+            <xm:f>Help!$C$2:$C$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D298</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
             <xm:f>Help!$Q$2:$Q$5</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2:Q300</xm:sqref>
+          <xm:sqref>Q2:Q298</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Help!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B1048576</xm:sqref>
+          <xm:sqref>B2:B1048574</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Help!$S$2:$S$11</xm:f>
           </x14:formula1>
-          <xm:sqref>R2:R1048576</xm:sqref>
+          <xm:sqref>R2:R1048574</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Help!$I$2:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>L1:L1048576</xm:sqref>
+          <xm:sqref>L1:L1048574</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Help!$R$2:$R$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
+          <xm:sqref>C2:C1048574</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2167,8 +2167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>6</v>
@@ -2248,21 +2248,21 @@
         <v>10</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -2280,7 +2280,7 @@
         <v>100</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="4">
         <v>5</v>
@@ -2298,7 +2298,7 @@
         <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>9</v>
@@ -2307,18 +2307,18 @@
         <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
@@ -2330,7 +2330,7 @@
         <v>100</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3">
         <v>1000</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
         <v>20</v>
@@ -2348,7 +2348,7 @@
         <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P3" t="s">
         <v>27</v>
@@ -2357,18 +2357,18 @@
         <v>29</v>
       </c>
       <c r="R3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S3" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2">
         <v>100</v>
@@ -2380,10 +2380,10 @@
         <v>28</v>
       </c>
       <c r="R4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -2394,115 +2394,115 @@
         <v>500</v>
       </c>
       <c r="Q5" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="R5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6" s="2">
         <v>500</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q8"/>
       <c r="R8"/>
       <c r="S8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9"/>
       <c r="R9"/>
       <c r="S9" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q12"/>
       <c r="R12"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q13"/>
       <c r="R13"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q14"/>
       <c r="R14"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q15"/>
       <c r="R15"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q16"/>
       <c r="R16"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q17"/>
       <c r="R17"/>

--- a/input_sap.xlsx
+++ b/input_sap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="93">
   <si>
     <t>Description</t>
   </si>
@@ -286,12 +286,33 @@
   </si>
   <si>
     <t>BYOL</t>
+  </si>
+  <si>
+    <t>HA</t>
+  </si>
+  <si>
+    <t>SANDBOX</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>NON_PROD</t>
+  </si>
+  <si>
+    <t>DR_FULL</t>
+  </si>
+  <si>
+    <t>DR_OPTIMIZED</t>
+  </si>
+  <si>
+    <t>DR_INACTIVE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1515,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2135,7 +2156,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Help!$B$2:$B$4</xm:f>
+            <xm:f>Help!$B$2:$B$11</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048574</xm:sqref>
         </x14:dataValidation>
@@ -2167,8 +2188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2387,6 +2408,9 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
@@ -2404,6 +2428,9 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>56</v>
       </c>
@@ -2418,6 +2445,9 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>57</v>
       </c>
@@ -2426,6 +2456,9 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>58</v>
       </c>
@@ -2436,6 +2469,9 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>59</v>
       </c>
@@ -2446,6 +2482,9 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>60</v>
       </c>
@@ -2456,6 +2495,9 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>61</v>
       </c>
@@ -2557,6 +2599,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/input_sap.xlsx
+++ b/input_sap.xlsx
@@ -219,9 +219,6 @@
     <t>Canada (Central)</t>
   </si>
   <si>
-    <t>China (Beijing)</t>
-  </si>
-  <si>
     <t>EU (Frankfurt)</t>
   </si>
   <si>
@@ -307,6 +304,9 @@
   </si>
   <si>
     <t>DR_INACTIVE</t>
+  </si>
+  <si>
+    <t>EU (Paris)</t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1537,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1586,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>5</v>
@@ -1616,7 +1616,7 @@
         <v>10</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -1666,12 +1666,12 @@
         <v>29</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>44</v>
@@ -1716,7 +1716,7 @@
         <v>29</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S3"/>
       <c r="T3"/>
@@ -1768,7 +1768,7 @@
         <v>29</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -1818,7 +1818,7 @@
         <v>29</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -1868,7 +1868,7 @@
         <v>29</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -1918,12 +1918,12 @@
         <v>29</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>44</v>
@@ -1968,12 +1968,12 @@
         <v>29</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>44</v>
@@ -2018,12 +2018,12 @@
         <v>29</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>44</v>
@@ -2068,12 +2068,12 @@
         <v>29</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>44</v>
@@ -2118,7 +2118,7 @@
         <v>29</v>
       </c>
       <c r="R11" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2141,12 +2141,6 @@
             <xm:f>Help!$O$2:$O$3</xm:f>
           </x14:formula1>
           <xm:sqref>T3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Help!$C$2:$C$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D298</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -2178,6 +2172,12 @@
           </x14:formula1>
           <xm:sqref>C2:C1048574</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Help!$C$2:$C$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048574</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -2189,7 +2189,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2272,7 +2272,7 @@
         <v>42</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -2331,7 +2331,7 @@
         <v>49</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -2381,7 +2381,7 @@
         <v>52</v>
       </c>
       <c r="S3" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -2404,12 +2404,12 @@
         <v>54</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -2418,18 +2418,18 @@
         <v>500</v>
       </c>
       <c r="Q5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R5" t="s">
         <v>55</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>56</v>
@@ -2438,26 +2438,26 @@
         <v>500</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>57</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>58</v>
@@ -2465,12 +2465,12 @@
       <c r="Q8"/>
       <c r="R8"/>
       <c r="S8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>59</v>
@@ -2478,12 +2478,12 @@
       <c r="Q9"/>
       <c r="R9"/>
       <c r="S9" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>60</v>
@@ -2491,12 +2491,12 @@
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>61</v>
@@ -2504,7 +2504,7 @@
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -2537,7 +2537,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="Q16"/>
       <c r="R16"/>

--- a/input_sap.xlsx
+++ b/input_sap.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravanini/WorkDocs/workspace/ProposalCalculator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carvaa/Projects/ProposalCalculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Servers" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="78">
   <si>
     <t>Description</t>
   </si>
@@ -141,18 +141,6 @@
     <t>SAPS</t>
   </si>
   <si>
-    <t>Server 3</t>
-  </si>
-  <si>
-    <t>Server 4</t>
-  </si>
-  <si>
-    <t>Server 5</t>
-  </si>
-  <si>
-    <t>Server 6</t>
-  </si>
-  <si>
     <t>QA</t>
   </si>
   <si>
@@ -231,61 +219,49 @@
     <t>EU (London)</t>
   </si>
   <si>
+    <t>Billing Option</t>
+  </si>
+  <si>
+    <t>On Demand (No Contract)</t>
+  </si>
+  <si>
+    <t>1 Yr No Upfront Reserved</t>
+  </si>
+  <si>
+    <t>1 Yr Partial Upfront Reserved</t>
+  </si>
+  <si>
+    <t>1 Yr All Upfront Reserved</t>
+  </si>
+  <si>
+    <t>3 Yr Partial Upfront Reserved</t>
+  </si>
+  <si>
+    <t>3 Yr All Upfront Reserved</t>
+  </si>
+  <si>
+    <t>3 Yr No Upfront Convertible</t>
+  </si>
+  <si>
+    <t>3 Yr Partial Upfront Convertible</t>
+  </si>
+  <si>
+    <t>3 Yr All Upfront Convertible</t>
+  </si>
+  <si>
+    <t>3 Yr No Upfront Reserved</t>
+  </si>
+  <si>
+    <t>HANA_B1</t>
+  </si>
+  <si>
+    <t>Memory(GB)</t>
+  </si>
+  <si>
+    <t>BYOL</t>
+  </si>
+  <si>
     <t>Server 2</t>
-  </si>
-  <si>
-    <t>Billing Option</t>
-  </si>
-  <si>
-    <t>On Demand (No Contract)</t>
-  </si>
-  <si>
-    <t>1 Yr No Upfront Reserved</t>
-  </si>
-  <si>
-    <t>1 Yr Partial Upfront Reserved</t>
-  </si>
-  <si>
-    <t>1 Yr All Upfront Reserved</t>
-  </si>
-  <si>
-    <t>3 Yr Partial Upfront Reserved</t>
-  </si>
-  <si>
-    <t>3 Yr All Upfront Reserved</t>
-  </si>
-  <si>
-    <t>3 Yr No Upfront Convertible</t>
-  </si>
-  <si>
-    <t>3 Yr Partial Upfront Convertible</t>
-  </si>
-  <si>
-    <t>3 Yr All Upfront Convertible</t>
-  </si>
-  <si>
-    <t>Server 7</t>
-  </si>
-  <si>
-    <t>Server 8</t>
-  </si>
-  <si>
-    <t>Server 9</t>
-  </si>
-  <si>
-    <t>3 Yr No Upfront Reserved</t>
-  </si>
-  <si>
-    <t>Server 10</t>
-  </si>
-  <si>
-    <t>HANA_B1</t>
-  </si>
-  <si>
-    <t>Memory(GB)</t>
-  </si>
-  <si>
-    <t>BYOL</t>
   </si>
 </sst>
 </file>
@@ -295,7 +271,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -361,13 +337,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -426,7 +395,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -444,10 +413,6 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1187,8 +1152,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:R1048574" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
-  <autoFilter ref="A1:R1048574"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:R1048565" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A1:R1048565"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Description" dataDxfId="36"/>
     <tableColumn id="2" name="Environment" dataDxfId="35"/>
@@ -1513,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1525,24 +1490,24 @@
     <col min="2" max="2" width="14.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.83203125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" style="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" style="20" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.5" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1550,7 +1515,7 @@
         <v>35</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>6</v>
@@ -1565,7 +1530,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>5</v>
@@ -1586,518 +1551,896 @@
         <v>15</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="22">
-        <v>2</v>
-      </c>
       <c r="G2" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="H2" s="22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I2" s="13">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J2" s="15">
         <v>1</v>
       </c>
-      <c r="K2" s="22">
-        <v>1000.5</v>
+      <c r="K2" s="20">
+        <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="22">
-        <v>2000.5</v>
-      </c>
-      <c r="O2" s="22">
-        <v>100</v>
-      </c>
-      <c r="P2" s="22">
-        <v>100</v>
+      <c r="N2" s="20">
+        <v>0</v>
+      </c>
+      <c r="O2" s="20">
+        <v>0</v>
+      </c>
+      <c r="P2" s="20">
+        <v>0</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="22">
-        <v>4</v>
-      </c>
       <c r="G3" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="H3" s="22">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I3" s="13">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J3" s="15">
         <v>1</v>
       </c>
-      <c r="K3" s="22">
-        <v>200</v>
+      <c r="K3" s="20">
+        <v>0</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="22">
-        <v>200</v>
-      </c>
-      <c r="O3" s="22">
-        <v>100</v>
-      </c>
-      <c r="P3" s="22">
-        <v>100</v>
+      <c r="N3" s="20">
+        <v>0</v>
+      </c>
+      <c r="O3" s="20">
+        <v>0</v>
+      </c>
+      <c r="P3" s="20">
+        <v>0</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="S3"/>
-      <c r="T3"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="22">
-        <v>128</v>
-      </c>
       <c r="G4" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="H4" s="22">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I4" s="13">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J4" s="15">
         <v>1</v>
       </c>
-      <c r="K4" s="22">
-        <v>300</v>
+      <c r="K4" s="20">
+        <v>0</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="22">
-        <v>300</v>
-      </c>
-      <c r="O4" s="22">
-        <v>100</v>
-      </c>
-      <c r="P4" s="22">
-        <v>100</v>
+      <c r="N4" s="20">
+        <v>0</v>
+      </c>
+      <c r="O4" s="20">
+        <v>0</v>
+      </c>
+      <c r="P4" s="20">
+        <v>0</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="22">
-        <v>128</v>
-      </c>
       <c r="G5" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="H5" s="22">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I5" s="13">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J5" s="15">
         <v>1</v>
       </c>
-      <c r="K5" s="22">
-        <v>400</v>
+      <c r="K5" s="20">
+        <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="22">
-        <v>400</v>
-      </c>
-      <c r="O5" s="22">
-        <v>100</v>
-      </c>
-      <c r="P5" s="22">
-        <v>100</v>
+      <c r="N5" s="20">
+        <v>0</v>
+      </c>
+      <c r="O5" s="20">
+        <v>0</v>
+      </c>
+      <c r="P5" s="20">
+        <v>0</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="22">
-        <v>6000</v>
-      </c>
       <c r="G6" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="H6" s="22">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="I6" s="13">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J6" s="15">
         <v>1</v>
       </c>
-      <c r="K6" s="22">
-        <v>500</v>
+      <c r="K6" s="20">
+        <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="22">
-        <v>500</v>
-      </c>
-      <c r="O6" s="22">
-        <v>100</v>
-      </c>
-      <c r="P6" s="22">
-        <v>100</v>
+      <c r="N6" s="20">
+        <v>0</v>
+      </c>
+      <c r="O6" s="20">
+        <v>0</v>
+      </c>
+      <c r="P6" s="20">
+        <v>0</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="22">
-        <v>6000</v>
-      </c>
       <c r="G7" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="H7" s="22">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="I7" s="13">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J7" s="15">
         <v>1</v>
       </c>
-      <c r="K7" s="22">
-        <v>500</v>
+      <c r="K7" s="20">
+        <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="22">
-        <v>500</v>
-      </c>
-      <c r="O7" s="22">
-        <v>100</v>
-      </c>
-      <c r="P7" s="22">
-        <v>100</v>
+      <c r="N7" s="20">
+        <v>0</v>
+      </c>
+      <c r="O7" s="20">
+        <v>0</v>
+      </c>
+      <c r="P7" s="20">
+        <v>0</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="22">
-        <v>5000</v>
-      </c>
       <c r="G8" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="H8" s="22">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="I8" s="13">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J8" s="15">
         <v>1</v>
       </c>
-      <c r="K8" s="22">
-        <v>600</v>
+      <c r="K8" s="20">
+        <v>0</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="22">
-        <v>600</v>
-      </c>
-      <c r="O8" s="22">
-        <v>100</v>
-      </c>
-      <c r="P8" s="22">
-        <v>100</v>
+      <c r="N8" s="20">
+        <v>0</v>
+      </c>
+      <c r="O8" s="20">
+        <v>0</v>
+      </c>
+      <c r="P8" s="20">
+        <v>0</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="22">
-        <v>5000</v>
-      </c>
       <c r="G9" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="H9" s="22">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I9" s="13">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J9" s="15">
         <v>1</v>
       </c>
-      <c r="K9" s="22">
-        <v>700</v>
+      <c r="K9" s="20">
+        <v>0</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="22">
-        <v>700</v>
-      </c>
-      <c r="O9" s="22">
-        <v>100</v>
-      </c>
-      <c r="P9" s="22">
-        <v>100</v>
+      <c r="N9" s="20">
+        <v>0</v>
+      </c>
+      <c r="O9" s="20">
+        <v>0</v>
+      </c>
+      <c r="P9" s="20">
+        <v>0</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="22">
-        <v>5000</v>
-      </c>
       <c r="G10" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="H10" s="22">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I10" s="13">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J10" s="15">
         <v>1</v>
       </c>
-      <c r="K10" s="22">
-        <v>800</v>
+      <c r="K10" s="20">
+        <v>0</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="22">
-        <v>800</v>
-      </c>
-      <c r="O10" s="22">
-        <v>100</v>
-      </c>
-      <c r="P10" s="22">
-        <v>100</v>
+      <c r="N10" s="20">
+        <v>0</v>
+      </c>
+      <c r="O10" s="20">
+        <v>0</v>
+      </c>
+      <c r="P10" s="20">
+        <v>0</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="22">
-        <v>5000</v>
-      </c>
       <c r="G11" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="H11" s="22">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I11" s="13">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J11" s="15">
         <v>1</v>
       </c>
-      <c r="K11" s="22">
-        <v>900</v>
+      <c r="K11" s="20">
+        <v>0</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="22">
-        <v>900</v>
-      </c>
-      <c r="O11" s="22">
-        <v>100</v>
-      </c>
-      <c r="P11" s="22">
-        <v>100</v>
+      <c r="N11" s="20">
+        <v>0</v>
+      </c>
+      <c r="O11" s="20">
+        <v>0</v>
+      </c>
+      <c r="P11" s="20">
+        <v>0</v>
       </c>
       <c r="Q11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <v>1</v>
+      </c>
+      <c r="K12" s="20">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="20">
+        <v>0</v>
+      </c>
+      <c r="O12" s="20">
+        <v>0</v>
+      </c>
+      <c r="P12" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>1</v>
+      </c>
+      <c r="K13" s="20">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="20">
+        <v>0</v>
+      </c>
+      <c r="O13" s="20">
+        <v>0</v>
+      </c>
+      <c r="P13" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="15">
+        <v>1</v>
+      </c>
+      <c r="K14" s="20">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="20">
+        <v>0</v>
+      </c>
+      <c r="O14" s="20">
+        <v>0</v>
+      </c>
+      <c r="P14" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="R11" s="18" t="s">
+      <c r="R14" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>77</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="20">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="20">
+        <v>0</v>
+      </c>
+      <c r="O15" s="20">
+        <v>0</v>
+      </c>
+      <c r="P15" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
+        <v>1</v>
+      </c>
+      <c r="K16" s="20">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="20">
+        <v>0</v>
+      </c>
+      <c r="O16" s="20">
+        <v>0</v>
+      </c>
+      <c r="P16" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="15">
+        <v>1</v>
+      </c>
+      <c r="K17" s="20">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="20">
+        <v>0</v>
+      </c>
+      <c r="O17" s="20">
+        <v>0</v>
+      </c>
+      <c r="P17" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>1</v>
+      </c>
+      <c r="K18" s="20">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="20">
+        <v>0</v>
+      </c>
+      <c r="O18" s="20">
+        <v>0</v>
+      </c>
+      <c r="P18" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
+        <v>1</v>
+      </c>
+      <c r="K19" s="20">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="20">
+        <v>0</v>
+      </c>
+      <c r="O19" s="20">
+        <v>0</v>
+      </c>
+      <c r="P19" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <v>1</v>
+      </c>
+      <c r="K20" s="20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="20">
+        <v>0</v>
+      </c>
+      <c r="P20" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
+        <v>0</v>
+      </c>
+      <c r="J21" s="15">
+        <v>1</v>
+      </c>
+      <c r="K21" s="20">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="20">
+        <v>0</v>
+      </c>
+      <c r="O21" s="20">
+        <v>0</v>
+      </c>
+      <c r="P21" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2108,54 +2451,42 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Help!$N$2:$N$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>S3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Help!$O$2:$O$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>T3</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Help!$C$2:$C$17</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D298</xm:sqref>
+          <xm:sqref>D2:D289</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Help!$Q$2:$Q$5</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2:Q298</xm:sqref>
+          <xm:sqref>Q2:Q289</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Help!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B1048574</xm:sqref>
+          <xm:sqref>B2:B1048565</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Help!$S$2:$S$11</xm:f>
           </x14:formula1>
-          <xm:sqref>R2:R1048574</xm:sqref>
+          <xm:sqref>R2:R1048565</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Help!$I$2:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>L1:L1048574</xm:sqref>
+          <xm:sqref>L1:L1048565</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Help!$R$2:$R$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1048574</xm:sqref>
+          <xm:sqref>C2:C1048565</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2248,10 +2579,10 @@
         <v>10</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>68</v>
+        <v>38</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -2259,10 +2590,10 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -2298,7 +2629,7 @@
         <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>9</v>
@@ -2307,18 +2638,18 @@
         <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>69</v>
+        <v>45</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
@@ -2348,7 +2679,7 @@
         <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P3" t="s">
         <v>27</v>
@@ -2357,18 +2688,18 @@
         <v>29</v>
       </c>
       <c r="R3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>70</v>
+        <v>48</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2">
         <v>100</v>
@@ -2380,10 +2711,10 @@
         <v>28</v>
       </c>
       <c r="R4" t="s">
-        <v>54</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -2394,108 +2725,108 @@
         <v>500</v>
       </c>
       <c r="Q5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="R5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H6" s="2">
         <v>500</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q8"/>
       <c r="R8"/>
       <c r="S8" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q9"/>
       <c r="R9"/>
-      <c r="S9" s="20" t="s">
-        <v>75</v>
+      <c r="S9" s="18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q11"/>
       <c r="R11"/>
-      <c r="S11" s="20" t="s">
-        <v>77</v>
+      <c r="S11" s="18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q12"/>
       <c r="R12"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q13"/>
       <c r="R13"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Q14"/>
       <c r="R14"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q15"/>
       <c r="R15"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q16"/>
       <c r="R16"/>

--- a/input_sap.xlsx
+++ b/input_sap.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carvaa/Projects/ProposalCalculator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravanini/WorkDocs/workspace/ProposalCalculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DC5A450-2AE3-744C-8627-78F80B64AB52}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Servers" sheetId="1" r:id="rId1"/>
     <sheet name="Help" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="93">
   <si>
     <t>Description</t>
   </si>
@@ -141,6 +142,18 @@
     <t>SAPS</t>
   </si>
   <si>
+    <t>Server 3</t>
+  </si>
+  <si>
+    <t>Server 4</t>
+  </si>
+  <si>
+    <t>Server 5</t>
+  </si>
+  <si>
+    <t>Server 6</t>
+  </si>
+  <si>
     <t>QA</t>
   </si>
   <si>
@@ -207,9 +220,6 @@
     <t>Canada (Central)</t>
   </si>
   <si>
-    <t>China (Beijing)</t>
-  </si>
-  <si>
     <t>EU (Frankfurt)</t>
   </si>
   <si>
@@ -219,6 +229,9 @@
     <t>EU (London)</t>
   </si>
   <si>
+    <t>Server 2</t>
+  </si>
+  <si>
     <t>Billing Option</t>
   </si>
   <si>
@@ -249,9 +262,21 @@
     <t>3 Yr All Upfront Convertible</t>
   </si>
   <si>
+    <t>Server 7</t>
+  </si>
+  <si>
+    <t>Server 8</t>
+  </si>
+  <si>
+    <t>Server 9</t>
+  </si>
+  <si>
     <t>3 Yr No Upfront Reserved</t>
   </si>
   <si>
+    <t>Server 10</t>
+  </si>
+  <si>
     <t>HANA_B1</t>
   </si>
   <si>
@@ -261,17 +286,38 @@
     <t>BYOL</t>
   </si>
   <si>
-    <t>Server 2</t>
+    <t>HA</t>
+  </si>
+  <si>
+    <t>SANDBOX</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>NON_PROD</t>
+  </si>
+  <si>
+    <t>DR_FULL</t>
+  </si>
+  <si>
+    <t>DR_OPTIMIZED</t>
+  </si>
+  <si>
+    <t>DR_INACTIVE</t>
+  </si>
+  <si>
+    <t>EU (Paris)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -337,6 +383,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -395,7 +448,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -413,6 +466,10 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -438,7 +495,7 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="39">
@@ -1152,64 +1209,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:R1048565" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
-  <autoFilter ref="A1:R1048565"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:R1048574" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A1:R1048574" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Description" dataDxfId="36"/>
-    <tableColumn id="2" name="Environment" dataDxfId="35"/>
-    <tableColumn id="19" name="SAP Instance Type" dataDxfId="34"/>
-    <tableColumn id="3" name="Region" dataDxfId="33"/>
-    <tableColumn id="5" name="SAPS" dataDxfId="32"/>
-    <tableColumn id="4" name="CPU" dataDxfId="31"/>
-    <tableColumn id="6" name="CPU Tolerance" dataDxfId="30" dataCellStyle="Percent"/>
-    <tableColumn id="17" name="Memory(GB)" dataDxfId="29"/>
-    <tableColumn id="7" name="Memory Tolerance" dataDxfId="28" dataCellStyle="Percent"/>
-    <tableColumn id="8" name="Monthly Utilization" dataDxfId="27"/>
-    <tableColumn id="9" name="Storage(GB)" dataDxfId="26"/>
-    <tableColumn id="10" name="Volume Type" dataDxfId="25"/>
-    <tableColumn id="11" name="IOPS" dataDxfId="24"/>
-    <tableColumn id="12" name="Snapshot(GB)" dataDxfId="23"/>
-    <tableColumn id="20" name="Archive Logs/Local Backup(GB)" dataDxfId="22"/>
-    <tableColumn id="21" name="S3 Backup(GB)" dataDxfId="21"/>
-    <tableColumn id="18" name="Operating System" dataDxfId="20"/>
-    <tableColumn id="22" name="Billing Option" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Environment" dataDxfId="35"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="SAP Instance Type" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Region" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SAPS" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CPU" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CPU Tolerance" dataDxfId="30" dataCellStyle="Percent"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Memory(GB)" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Memory Tolerance" dataDxfId="28" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Monthly Utilization" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Storage(GB)" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Volume Type" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="IOPS" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Snapshot(GB)" dataDxfId="23"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Archive Logs/Local Backup(GB)" dataDxfId="22"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="S3 Backup(GB)" dataDxfId="21"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Operating System" dataDxfId="20"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Billing Option" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table4" displayName="Table4" ref="H1:S17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="H1:S17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="H1:S17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="H1:S17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Storage(GB)" dataDxfId="16"/>
-    <tableColumn id="2" name="Volume Type" dataDxfId="15"/>
-    <tableColumn id="3" name="IOPS"/>
-    <tableColumn id="4" name="Snapshot(GB)" dataDxfId="14"/>
-    <tableColumn id="5" name="Term Type" dataDxfId="13"/>
-    <tableColumn id="6" name="Lease Contract Length" dataDxfId="12"/>
-    <tableColumn id="7" name="Purchase Option"/>
-    <tableColumn id="8" name="Offering Class" dataDxfId="11"/>
-    <tableColumn id="9" name="Tenancy" dataDxfId="10"/>
-    <tableColumn id="10" name="Operating System"/>
-    <tableColumn id="14" name="SAP Instance Type"/>
-    <tableColumn id="11" name="Billing Option" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Storage(GB)" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Volume Type" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="IOPS"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Snapshot(GB)" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Term Type" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Lease Contract Length" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Purchase Option"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Offering Class" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Tenancy" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Operating System"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="SAP Instance Type"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Billing Option" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table5" displayName="Table5" ref="A1:G17" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A1:G17" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G17" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Description" dataDxfId="6"/>
-    <tableColumn id="7" name="Environment" dataDxfId="5"/>
-    <tableColumn id="2" name="Region" dataDxfId="4"/>
-    <tableColumn id="3" name="Instances" dataDxfId="3"/>
-    <tableColumn id="4" name="CPU" dataDxfId="2"/>
-    <tableColumn id="5" name="Monthly Utilization" dataDxfId="1"/>
-    <tableColumn id="6" name="Memory" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Description" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Environment" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Region" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Instances" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="CPU" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Monthly Utilization" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Memory" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1477,11 +1534,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1490,24 +1547,24 @@
     <col min="2" max="2" width="14.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.83203125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" style="22" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" style="22" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.5" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1515,7 +1572,7 @@
         <v>35</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>6</v>
@@ -1530,7 +1587,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>5</v>
@@ -1551,896 +1608,518 @@
         <v>15</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="F2" s="22">
+        <v>2</v>
+      </c>
       <c r="G2" s="13">
-        <v>0</v>
+        <v>0.05</v>
+      </c>
+      <c r="H2" s="22">
+        <v>4</v>
       </c>
       <c r="I2" s="13">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J2" s="15">
         <v>1</v>
       </c>
-      <c r="K2" s="20">
-        <v>0</v>
+      <c r="K2" s="22">
+        <v>1000.5</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="20">
-        <v>0</v>
-      </c>
-      <c r="O2" s="20">
-        <v>0</v>
-      </c>
-      <c r="P2" s="20">
-        <v>0</v>
+      <c r="N2" s="22">
+        <v>2000.5</v>
+      </c>
+      <c r="O2" s="22">
+        <v>100</v>
+      </c>
+      <c r="P2" s="22">
+        <v>100</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="F3" s="22">
+        <v>4</v>
+      </c>
       <c r="G3" s="13">
-        <v>0</v>
+        <v>0.05</v>
+      </c>
+      <c r="H3" s="22">
+        <v>8</v>
       </c>
       <c r="I3" s="13">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J3" s="15">
         <v>1</v>
       </c>
-      <c r="K3" s="20">
-        <v>0</v>
+      <c r="K3" s="22">
+        <v>200</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="20">
-        <v>0</v>
-      </c>
-      <c r="O3" s="20">
-        <v>0</v>
-      </c>
-      <c r="P3" s="20">
-        <v>0</v>
+      <c r="N3" s="22">
+        <v>200</v>
+      </c>
+      <c r="O3" s="22">
+        <v>100</v>
+      </c>
+      <c r="P3" s="22">
+        <v>100</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3"/>
+      <c r="T3"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="F4" s="22">
+        <v>128</v>
+      </c>
       <c r="G4" s="13">
-        <v>0</v>
+        <v>0.05</v>
+      </c>
+      <c r="H4" s="22">
+        <v>2000</v>
       </c>
       <c r="I4" s="13">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J4" s="15">
         <v>1</v>
       </c>
-      <c r="K4" s="20">
-        <v>0</v>
+      <c r="K4" s="22">
+        <v>300</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="20">
-        <v>0</v>
-      </c>
-      <c r="O4" s="20">
-        <v>0</v>
-      </c>
-      <c r="P4" s="20">
-        <v>0</v>
+      <c r="N4" s="22">
+        <v>300</v>
+      </c>
+      <c r="O4" s="22">
+        <v>100</v>
+      </c>
+      <c r="P4" s="22">
+        <v>100</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="F5" s="22">
+        <v>128</v>
+      </c>
       <c r="G5" s="13">
-        <v>0</v>
+        <v>0.05</v>
+      </c>
+      <c r="H5" s="22">
+        <v>3000</v>
       </c>
       <c r="I5" s="13">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J5" s="15">
         <v>1</v>
       </c>
-      <c r="K5" s="20">
-        <v>0</v>
+      <c r="K5" s="22">
+        <v>400</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="20">
-        <v>0</v>
-      </c>
-      <c r="O5" s="20">
-        <v>0</v>
-      </c>
-      <c r="P5" s="20">
-        <v>0</v>
+      <c r="N5" s="22">
+        <v>400</v>
+      </c>
+      <c r="O5" s="22">
+        <v>100</v>
+      </c>
+      <c r="P5" s="22">
+        <v>100</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E6" s="22">
+        <v>6000</v>
+      </c>
       <c r="G6" s="13">
-        <v>0</v>
+        <v>0.05</v>
+      </c>
+      <c r="H6" s="22">
+        <v>64</v>
       </c>
       <c r="I6" s="13">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J6" s="15">
         <v>1</v>
       </c>
-      <c r="K6" s="20">
-        <v>0</v>
+      <c r="K6" s="22">
+        <v>500</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="20">
-        <v>0</v>
-      </c>
-      <c r="O6" s="20">
-        <v>0</v>
-      </c>
-      <c r="P6" s="20">
-        <v>0</v>
+      <c r="N6" s="22">
+        <v>500</v>
+      </c>
+      <c r="O6" s="22">
+        <v>100</v>
+      </c>
+      <c r="P6" s="22">
+        <v>100</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E7" s="22">
+        <v>6000</v>
+      </c>
       <c r="G7" s="13">
-        <v>0</v>
+        <v>0.05</v>
+      </c>
+      <c r="H7" s="22">
+        <v>64</v>
       </c>
       <c r="I7" s="13">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J7" s="15">
         <v>1</v>
       </c>
-      <c r="K7" s="20">
-        <v>0</v>
+      <c r="K7" s="22">
+        <v>500</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="20">
-        <v>0</v>
-      </c>
-      <c r="O7" s="20">
-        <v>0</v>
-      </c>
-      <c r="P7" s="20">
-        <v>0</v>
+      <c r="N7" s="22">
+        <v>500</v>
+      </c>
+      <c r="O7" s="22">
+        <v>100</v>
+      </c>
+      <c r="P7" s="22">
+        <v>100</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E8" s="22">
+        <v>5000</v>
+      </c>
       <c r="G8" s="13">
-        <v>0</v>
+        <v>0.05</v>
+      </c>
+      <c r="H8" s="22">
+        <v>128</v>
       </c>
       <c r="I8" s="13">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J8" s="15">
         <v>1</v>
       </c>
-      <c r="K8" s="20">
-        <v>0</v>
+      <c r="K8" s="22">
+        <v>600</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="20">
-        <v>0</v>
-      </c>
-      <c r="O8" s="20">
-        <v>0</v>
-      </c>
-      <c r="P8" s="20">
-        <v>0</v>
+      <c r="N8" s="22">
+        <v>600</v>
+      </c>
+      <c r="O8" s="22">
+        <v>100</v>
+      </c>
+      <c r="P8" s="22">
+        <v>100</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E9" s="22">
+        <v>5000</v>
+      </c>
       <c r="G9" s="13">
-        <v>0</v>
+        <v>0.05</v>
+      </c>
+      <c r="H9" s="22">
+        <v>32</v>
       </c>
       <c r="I9" s="13">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J9" s="15">
         <v>1</v>
       </c>
-      <c r="K9" s="20">
-        <v>0</v>
+      <c r="K9" s="22">
+        <v>700</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="20">
-        <v>0</v>
-      </c>
-      <c r="O9" s="20">
-        <v>0</v>
-      </c>
-      <c r="P9" s="20">
-        <v>0</v>
+      <c r="N9" s="22">
+        <v>700</v>
+      </c>
+      <c r="O9" s="22">
+        <v>100</v>
+      </c>
+      <c r="P9" s="22">
+        <v>100</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E10" s="22">
+        <v>5000</v>
+      </c>
       <c r="G10" s="13">
-        <v>0</v>
+        <v>0.05</v>
+      </c>
+      <c r="H10" s="22">
+        <v>32</v>
       </c>
       <c r="I10" s="13">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J10" s="15">
         <v>1</v>
       </c>
-      <c r="K10" s="20">
-        <v>0</v>
+      <c r="K10" s="22">
+        <v>800</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="20">
-        <v>0</v>
-      </c>
-      <c r="O10" s="20">
-        <v>0</v>
-      </c>
-      <c r="P10" s="20">
-        <v>0</v>
+      <c r="N10" s="22">
+        <v>800</v>
+      </c>
+      <c r="O10" s="22">
+        <v>100</v>
+      </c>
+      <c r="P10" s="22">
+        <v>100</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E11" s="22">
+        <v>5000</v>
+      </c>
       <c r="G11" s="13">
-        <v>0</v>
+        <v>0.05</v>
+      </c>
+      <c r="H11" s="22">
+        <v>32</v>
       </c>
       <c r="I11" s="13">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J11" s="15">
         <v>1</v>
       </c>
-      <c r="K11" s="20">
-        <v>0</v>
+      <c r="K11" s="22">
+        <v>900</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="20">
-        <v>0</v>
-      </c>
-      <c r="O11" s="20">
-        <v>0</v>
-      </c>
-      <c r="P11" s="20">
-        <v>0</v>
+      <c r="N11" s="22">
+        <v>900</v>
+      </c>
+      <c r="O11" s="22">
+        <v>100</v>
+      </c>
+      <c r="P11" s="22">
+        <v>100</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0</v>
-      </c>
-      <c r="I12" s="13">
-        <v>0</v>
-      </c>
-      <c r="J12" s="15">
-        <v>1</v>
-      </c>
-      <c r="K12" s="20">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="20">
-        <v>0</v>
-      </c>
-      <c r="O12" s="20">
-        <v>0</v>
-      </c>
-      <c r="P12" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="15">
-        <v>1</v>
-      </c>
-      <c r="K13" s="20">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="20">
-        <v>0</v>
-      </c>
-      <c r="O13" s="20">
-        <v>0</v>
-      </c>
-      <c r="P13" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0</v>
-      </c>
-      <c r="J14" s="15">
-        <v>1</v>
-      </c>
-      <c r="K14" s="20">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="20">
-        <v>0</v>
-      </c>
-      <c r="O14" s="20">
-        <v>0</v>
-      </c>
-      <c r="P14" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="13">
-        <v>0</v>
-      </c>
-      <c r="I15" s="13">
-        <v>0</v>
-      </c>
-      <c r="J15" s="15">
-        <v>1</v>
-      </c>
-      <c r="K15" s="20">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="20">
-        <v>0</v>
-      </c>
-      <c r="O15" s="20">
-        <v>0</v>
-      </c>
-      <c r="P15" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="13">
-        <v>0</v>
-      </c>
-      <c r="I16" s="13">
-        <v>0</v>
-      </c>
-      <c r="J16" s="15">
-        <v>1</v>
-      </c>
-      <c r="K16" s="20">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="20">
-        <v>0</v>
-      </c>
-      <c r="O16" s="20">
-        <v>0</v>
-      </c>
-      <c r="P16" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="13">
-        <v>0</v>
-      </c>
-      <c r="I17" s="13">
-        <v>0</v>
-      </c>
-      <c r="J17" s="15">
-        <v>1</v>
-      </c>
-      <c r="K17" s="20">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="20">
-        <v>0</v>
-      </c>
-      <c r="O17" s="20">
-        <v>0</v>
-      </c>
-      <c r="P17" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="13">
-        <v>0</v>
-      </c>
-      <c r="I18" s="13">
-        <v>0</v>
-      </c>
-      <c r="J18" s="15">
-        <v>1</v>
-      </c>
-      <c r="K18" s="20">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="20">
-        <v>0</v>
-      </c>
-      <c r="O18" s="20">
-        <v>0</v>
-      </c>
-      <c r="P18" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="13">
-        <v>0</v>
-      </c>
-      <c r="I19" s="13">
-        <v>0</v>
-      </c>
-      <c r="J19" s="15">
-        <v>1</v>
-      </c>
-      <c r="K19" s="20">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N19" s="20">
-        <v>0</v>
-      </c>
-      <c r="O19" s="20">
-        <v>0</v>
-      </c>
-      <c r="P19" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="13">
-        <v>0</v>
-      </c>
-      <c r="I20" s="13">
-        <v>0</v>
-      </c>
-      <c r="J20" s="15">
-        <v>1</v>
-      </c>
-      <c r="K20" s="20">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N20" s="20">
-        <v>0</v>
-      </c>
-      <c r="O20" s="20">
-        <v>0</v>
-      </c>
-      <c r="P20" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="13">
-        <v>0</v>
-      </c>
-      <c r="I21" s="13">
-        <v>0</v>
-      </c>
-      <c r="J21" s="15">
-        <v>1</v>
-      </c>
-      <c r="K21" s="20">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N21" s="20">
-        <v>0</v>
-      </c>
-      <c r="O21" s="20">
-        <v>0</v>
-      </c>
-      <c r="P21" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2451,42 +2130,54 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>Help!$N$2:$N$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>S3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>Help!$O$2:$O$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>T3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>Help!$Q$2:$Q$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q2:Q298</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+          <x14:formula1>
+            <xm:f>Help!$B$2:$B$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1048574</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+          <x14:formula1>
+            <xm:f>Help!$S$2:$S$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>R2:R1048574</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+          <x14:formula1>
+            <xm:f>Help!$I$2:$I$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>L1:L1048574</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
+          <x14:formula1>
+            <xm:f>Help!$R$2:$R$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048574</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>Help!$C$2:$C$17</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D289</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Help!$Q$2:$Q$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>Q2:Q289</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Help!$B$2:$B$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B1048565</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Help!$S$2:$S$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>R2:R1048565</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Help!$I$2:$I$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>L1:L1048565</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Help!$R$2:$R$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048565</xm:sqref>
+          <xm:sqref>D2:D1048574</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2495,11 +2186,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2579,10 +2270,10 @@
         <v>10</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>63</v>
+        <v>42</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -2590,10 +2281,10 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -2629,7 +2320,7 @@
         <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>9</v>
@@ -2638,18 +2329,18 @@
         <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>64</v>
+        <v>49</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
@@ -2679,7 +2370,7 @@
         <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="P3" t="s">
         <v>27</v>
@@ -2688,18 +2379,18 @@
         <v>29</v>
       </c>
       <c r="R3" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>65</v>
+        <v>52</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2">
         <v>100</v>
@@ -2711,13 +2402,16 @@
         <v>28</v>
       </c>
       <c r="R4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S4" s="17" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
@@ -2725,108 +2419,126 @@
         <v>500</v>
       </c>
       <c r="Q5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="R5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H6" s="2">
         <v>500</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>73</v>
+        <v>82</v>
+      </c>
+      <c r="S6" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q8"/>
       <c r="R8"/>
       <c r="S8" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q9"/>
       <c r="R9"/>
-      <c r="S9" s="18" t="s">
-        <v>70</v>
+      <c r="S9" s="20" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q11"/>
       <c r="R11"/>
-      <c r="S11" s="18" t="s">
-        <v>72</v>
+      <c r="S11" s="20" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q12"/>
       <c r="R12"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="Q13"/>
       <c r="R13"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q14"/>
       <c r="R14"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Q15"/>
       <c r="R15"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="Q16"/>
       <c r="R16"/>
@@ -2888,6 +2600,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/input_sap.xlsx
+++ b/input_sap.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravanini/WorkDocs/workspace/ProposalCalculator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carvaa/Documents/GitHub/ProposalCalculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DC5A450-2AE3-744C-8627-78F80B64AB52}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F33E0365-4812-FC44-9634-4F288E27D552}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Servers" sheetId="1" r:id="rId1"/>
-    <sheet name="Help" sheetId="3" r:id="rId2"/>
+    <sheet name="Parameters" sheetId="4" r:id="rId2"/>
+    <sheet name="Help" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
   <si>
     <t>Description</t>
   </si>
@@ -142,18 +143,6 @@
     <t>SAPS</t>
   </si>
   <si>
-    <t>Server 3</t>
-  </si>
-  <si>
-    <t>Server 4</t>
-  </si>
-  <si>
-    <t>Server 5</t>
-  </si>
-  <si>
-    <t>Server 6</t>
-  </si>
-  <si>
     <t>QA</t>
   </si>
   <si>
@@ -229,9 +218,6 @@
     <t>EU (London)</t>
   </si>
   <si>
-    <t>Server 2</t>
-  </si>
-  <si>
     <t>Billing Option</t>
   </si>
   <si>
@@ -262,21 +248,9 @@
     <t>3 Yr All Upfront Convertible</t>
   </si>
   <si>
-    <t>Server 7</t>
-  </si>
-  <si>
-    <t>Server 8</t>
-  </si>
-  <si>
-    <t>Server 9</t>
-  </si>
-  <si>
     <t>3 Yr No Upfront Reserved</t>
   </si>
   <si>
-    <t>Server 10</t>
-  </si>
-  <si>
     <t>HANA_B1</t>
   </si>
   <si>
@@ -308,6 +282,18 @@
   </si>
   <si>
     <t>EU (Paris)</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Enterprise</t>
   </si>
 </sst>
 </file>
@@ -317,7 +303,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -385,7 +371,19 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -405,7 +403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -421,6 +419,21 @@
       </top>
       <bottom style="thin">
         <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,7 +461,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -466,14 +479,14 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -498,7 +511,7 @@
     <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="40">
     <dxf>
       <font>
         <b val="0"/>
@@ -655,6 +668,23 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1209,48 +1239,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:R1048574" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
-  <autoFilter ref="A1:R1048574" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:R1048440" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A1:R1048440" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Environment" dataDxfId="35"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="SAP Instance Type" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Region" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SAPS" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CPU" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CPU Tolerance" dataDxfId="30" dataCellStyle="Percent"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Memory(GB)" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Memory Tolerance" dataDxfId="28" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Monthly Utilization" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Storage(GB)" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Volume Type" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="IOPS" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Snapshot(GB)" dataDxfId="23"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Archive Logs/Local Backup(GB)" dataDxfId="22"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="S3 Backup(GB)" dataDxfId="21"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Operating System" dataDxfId="20"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Billing Option" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Environment" dataDxfId="36"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="SAP Instance Type" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Region" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SAPS" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CPU" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CPU Tolerance" dataDxfId="31" dataCellStyle="Percent"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Memory(GB)" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Memory Tolerance" dataDxfId="29" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Monthly Utilization" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Storage(GB)" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Volume Type" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="IOPS" dataDxfId="25"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Snapshot(GB)" dataDxfId="24"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Archive Logs/Local Backup(GB)" dataDxfId="23"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="S3 Backup(GB)" dataDxfId="22"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Operating System" dataDxfId="21"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Billing Option" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="H1:S17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="H1:S17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Storage(GB)" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Volume Type" dataDxfId="15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="H1:T17" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="H1:T17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Storage(GB)" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Volume Type" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="IOPS"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Snapshot(GB)" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Term Type" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Lease Contract Length" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Snapshot(GB)" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Term Type" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Lease Contract Length" dataDxfId="13"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Purchase Option"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Offering Class" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Tenancy" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Offering Class" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Tenancy" dataDxfId="11"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Operating System"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="SAP Instance Type"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Billing Option" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Billing Option" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{59F1481D-FC01-3F4E-AE18-74C8F83D1CC0}" name="Support" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1535,10 +1566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1547,24 +1578,24 @@
     <col min="2" max="2" width="14.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.83203125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" style="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" style="20" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.5" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1572,7 +1603,7 @@
         <v>35</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>6</v>
@@ -1587,7 +1618,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>5</v>
@@ -1608,39 +1639,39 @@
         <v>15</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="22">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="F2" s="20">
+        <v>8</v>
       </c>
       <c r="G2" s="13">
         <v>0.05</v>
       </c>
-      <c r="H2" s="22">
-        <v>4</v>
+      <c r="H2" s="20">
+        <v>64</v>
       </c>
       <c r="I2" s="13">
         <v>0.05</v>
@@ -1648,478 +1679,29 @@
       <c r="J2" s="15">
         <v>1</v>
       </c>
-      <c r="K2" s="22">
-        <v>1000.5</v>
+      <c r="K2" s="20">
+        <v>310</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="22">
-        <v>2000.5</v>
-      </c>
-      <c r="O2" s="22">
-        <v>100</v>
-      </c>
-      <c r="P2" s="22">
-        <v>100</v>
+      <c r="M2" s="20">
+        <v>0</v>
+      </c>
+      <c r="N2" s="20">
+        <v>0</v>
+      </c>
+      <c r="O2" s="20">
+        <v>0</v>
+      </c>
+      <c r="P2" s="20">
+        <v>0</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="22">
-        <v>4</v>
-      </c>
-      <c r="G3" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="H3" s="22">
-        <v>8</v>
-      </c>
-      <c r="I3" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="J3" s="15">
-        <v>1</v>
-      </c>
-      <c r="K3" s="22">
-        <v>200</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="22">
-        <v>200</v>
-      </c>
-      <c r="O3" s="22">
-        <v>100</v>
-      </c>
-      <c r="P3" s="22">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="S3"/>
-      <c r="T3"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="22">
-        <v>128</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="H4" s="22">
-        <v>2000</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="J4" s="15">
-        <v>1</v>
-      </c>
-      <c r="K4" s="22">
-        <v>300</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="22">
-        <v>300</v>
-      </c>
-      <c r="O4" s="22">
-        <v>100</v>
-      </c>
-      <c r="P4" s="22">
-        <v>100</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="22">
-        <v>128</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="H5" s="22">
-        <v>3000</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="J5" s="15">
-        <v>1</v>
-      </c>
-      <c r="K5" s="22">
-        <v>400</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="22">
-        <v>400</v>
-      </c>
-      <c r="O5" s="22">
-        <v>100</v>
-      </c>
-      <c r="P5" s="22">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="22">
-        <v>6000</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="H6" s="22">
-        <v>64</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="J6" s="15">
-        <v>1</v>
-      </c>
-      <c r="K6" s="22">
-        <v>500</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="22">
-        <v>500</v>
-      </c>
-      <c r="O6" s="22">
-        <v>100</v>
-      </c>
-      <c r="P6" s="22">
-        <v>100</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="22">
-        <v>6000</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="H7" s="22">
-        <v>64</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="J7" s="15">
-        <v>1</v>
-      </c>
-      <c r="K7" s="22">
-        <v>500</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="22">
-        <v>500</v>
-      </c>
-      <c r="O7" s="22">
-        <v>100</v>
-      </c>
-      <c r="P7" s="22">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="22">
-        <v>5000</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="H8" s="22">
-        <v>128</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="J8" s="15">
-        <v>1</v>
-      </c>
-      <c r="K8" s="22">
-        <v>600</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="22">
-        <v>600</v>
-      </c>
-      <c r="O8" s="22">
-        <v>100</v>
-      </c>
-      <c r="P8" s="22">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="22">
-        <v>5000</v>
-      </c>
-      <c r="G9" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="H9" s="22">
-        <v>32</v>
-      </c>
-      <c r="I9" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="J9" s="15">
-        <v>1</v>
-      </c>
-      <c r="K9" s="22">
-        <v>700</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="22">
-        <v>700</v>
-      </c>
-      <c r="O9" s="22">
-        <v>100</v>
-      </c>
-      <c r="P9" s="22">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="22">
-        <v>5000</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="H10" s="22">
-        <v>32</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="J10" s="15">
-        <v>1</v>
-      </c>
-      <c r="K10" s="22">
-        <v>800</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="22">
-        <v>800</v>
-      </c>
-      <c r="O10" s="22">
-        <v>100</v>
-      </c>
-      <c r="P10" s="22">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="22">
-        <v>5000</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="H11" s="22">
-        <v>32</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="J11" s="15">
-        <v>1</v>
-      </c>
-      <c r="K11" s="22">
-        <v>900</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="22">
-        <v>900</v>
-      </c>
-      <c r="O11" s="22">
-        <v>100</v>
-      </c>
-      <c r="P11" s="22">
-        <v>100</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R11" s="18" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2130,54 +1712,42 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>Help!$N$2:$N$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>S3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>Help!$O$2:$O$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>T3</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Help!$Q$2:$Q$5</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2:Q298</xm:sqref>
+          <xm:sqref>Q2:Q164</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Help!$B$2:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B1048574</xm:sqref>
+          <xm:sqref>B2:B1048440</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Help!$S$2:$S$11</xm:f>
           </x14:formula1>
-          <xm:sqref>R2:R1048574</xm:sqref>
+          <xm:sqref>R2:R1048440</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>Help!$I$2:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>L1:L1048574</xm:sqref>
+          <xm:sqref>L1:L1048440</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>Help!$R$2:$R$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1048574</xm:sqref>
+          <xm:sqref>C2:C1048440</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>Help!$C$2:$C$17</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048574</xm:sqref>
+          <xm:sqref>D2:D1048440</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2186,11 +1756,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627CB669-E377-4A47-88A5-8CA746E1DE50}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EED2D45C-0ADB-4645-8B85-000A194CA317}">
+          <x14:formula1>
+            <xm:f>Help!$T$2:$T$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2214,10 +1822,11 @@
     <col min="17" max="17" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.83203125" style="2"/>
+    <col min="20" max="20" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2270,21 +1879,24 @@
         <v>10</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -2320,7 +1932,7 @@
         <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>9</v>
@@ -2329,18 +1941,21 @@
         <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
@@ -2370,7 +1985,7 @@
         <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P3" t="s">
         <v>27</v>
@@ -2379,18 +1994,21 @@
         <v>29</v>
       </c>
       <c r="R3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2">
         <v>100</v>
@@ -2402,15 +2020,18 @@
         <v>28</v>
       </c>
       <c r="R4" t="s">
-        <v>54</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -2419,141 +2040,154 @@
         <v>500</v>
       </c>
       <c r="Q5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="R5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="T5" s="21"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H6" s="2">
         <v>500</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="T6" s="21"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="T7" s="21"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q8"/>
       <c r="R8"/>
       <c r="S8" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="T8" s="21"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q9"/>
       <c r="R9"/>
-      <c r="S9" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S9" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="T9" s="21"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="T10" s="21"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q11"/>
       <c r="R11"/>
-      <c r="S11" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S11" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="T11" s="21"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q12"/>
       <c r="R12"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="21"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q13"/>
       <c r="R13"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="21"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Q14"/>
       <c r="R14"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="21"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q15"/>
       <c r="R15"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="21"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Q16"/>
       <c r="R16"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T16" s="21"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q17"/>
       <c r="R17"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T17" s="21"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E19" s="16"/>
     </row>
-    <row r="24" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2568,7 +2202,7 @@
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
     </row>
-    <row r="26" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2583,7 +2217,7 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="28" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>

--- a/input_sap.xlsx
+++ b/input_sap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carvaa/Desktop/sap_bonita/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravanini/WorkDocs/workspace/ProposalCalculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C954E9E-4263-EA40-B8CC-2B08035DF270}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072508DD-2764-404B-85EE-C525298F6A10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="16580" xr2:uid="{6D211BAE-D26B-E74A-B969-920951E188BB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{6D211BAE-D26B-E74A-B969-920951E188BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Servers" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="95">
   <si>
     <t>Description</t>
   </si>
@@ -294,6 +294,27 @@
   </si>
   <si>
     <t>APP</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Hong Kong)</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Osaka-Local)</t>
+  </si>
+  <si>
+    <t>AWS GovCloud (US-East)</t>
+  </si>
+  <si>
+    <t>EU (Stockholm)</t>
+  </si>
+  <si>
+    <t>1 Yr No Upfront Convertible</t>
+  </si>
+  <si>
+    <t>1 Yr Partial Upfront Convertible</t>
+  </si>
+  <si>
+    <t>1 Yr All Upfront Convertible</t>
   </si>
 </sst>
 </file>
@@ -731,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AC007D-B14B-A842-9703-8D72B01CF1C1}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -897,7 +918,7 @@
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="S3 Backup" error="Use any numeric value between 0 and 50000 GB." promptTitle="S3 Backup" prompt="This field is optional and is commonly used by databases. The ammount of storage required will depend on your retention policy." sqref="N1:N1048576" xr:uid="{07FC0280-7C2A-2348-B5C5-C681E45A9BCE}">
       <formula1>0</formula1>
-      <formula2>50000</formula2>
+      <formula2>500000</formula2>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="CPU" error="Use numeric value, and fill SAPS or CPU, never fill both fields." promptTitle="CPU:" prompt="Inform the number os vCPUs required by this server/instance." sqref="F1:F1048576" xr:uid="{5A4BEECC-08B8-CE4C-B3FF-38225C559446}">
       <formula1>ISBLANK(E1)</formula1>
@@ -918,12 +939,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Region" error="Pick a valid region." promptTitle="Region:" prompt="You can mix diferent regions in the same spreadsheet." xr:uid="{78806915-3BF8-0649-9A1B-F010EFC653FA}">
-          <x14:formula1>
-            <xm:f>Help!$C$2:$C$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>D1:D1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Volume Type" error="Pick a valid volume type." promptTitle="Volume Type:" prompt="General Purpose is SSD based and works for any instance type, including SAP HANA, but for HANA, keep in mind that striping volumes will be necessary to achieve the minimal performance. If you use PIOS, there is no need for striping volumes." xr:uid="{728E65A1-AEE1-4C40-99B2-AF3C56A046CF}">
           <x14:formula1>
             <xm:f>Help!$I$2:$I$3</xm:f>
@@ -942,17 +957,23 @@
           </x14:formula1>
           <xm:sqref>O1:O1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Billing Option" prompt="You can mix different B. Options in the same price estimation. Reserved instances usually fits best for SAP Workloads. For HANA, might be a good idea to work with convertible reservations. For app servers, use regular reservations if that works for you" xr:uid="{1D50BE0B-EBE7-FE4C-AF58-F9A22D160F06}">
-          <x14:formula1>
-            <xm:f>Help!$S$2:$S$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>P1:P1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Environment" error="Pick one of the valid environments" promptTitle="Environment:" prompt="DEV, QA, SANDBOX, TEST, NON_PROD: Bigger selection of instances for HANA_x000a_PROD, HA, DR_FULL: Smaller selection of instances for HANA_x000a_DR_OPTIMIZED: Capacity (CPU/Mem) will be 1/4 of the desired_x000a_DR_INACTIVE: Instances will be turned off" xr:uid="{BF03DEFB-BF5B-CA4E-8393-AE8B61B8ACCC}">
           <x14:formula1>
             <xm:f>Help!$B$2:$B$11</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Region" error="Pick a valid region." promptTitle="Region:" prompt="You can mix diferent regions in the same spreadsheet." xr:uid="{78806915-3BF8-0649-9A1B-F010EFC653FA}">
+          <x14:formula1>
+            <xm:f>Help!$C$2:$C$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Billing Option" prompt="You can mix different B. Options in the same price estimation. Reserved instances usually fits best for SAP Workloads. For HANA, might be a good idea to work with convertible reservations. For app servers, use regular reservations if that works for you" xr:uid="{1D50BE0B-EBE7-FE4C-AF58-F9A22D160F06}">
+          <x14:formula1>
+            <xm:f>Help!$S$2:$S$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>P1:P1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -997,9 +1018,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF15F124-54D9-9B4D-8D5F-51948E11FFE8}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1253,7 +1276,7 @@
         <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="H6">
         <v>500</v>
@@ -1262,7 +1285,7 @@
         <v>42</v>
       </c>
       <c r="S6" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -1270,10 +1293,10 @@
         <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -1281,10 +1304,10 @@
         <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S8" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -1292,10 +1315,10 @@
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -1303,10 +1326,10 @@
         <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="S10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -1314,39 +1337,68 @@
         <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>80</v>
+        <v>75</v>
+      </c>
+      <c r="S12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>81</v>
+        <v>90</v>
+      </c>
+      <c r="S13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="S14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>85</v>
       </c>
     </row>

--- a/input_sap.xlsx
+++ b/input_sap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravanini/WorkDocs/workspace/ProposalCalculator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carvaa/aws/code/ProposalCalculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072508DD-2764-404B-85EE-C525298F6A10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF35C5AD-1D5C-7B4B-A7E6-A0C259585335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{6D211BAE-D26B-E74A-B969-920951E188BB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" activeTab="1" xr2:uid="{6D211BAE-D26B-E74A-B969-920951E188BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Servers" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="96">
   <si>
     <t>Description</t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>1 Yr All Upfront Convertible</t>
+  </si>
+  <si>
+    <t>Data Transfer Out (GB/Month)</t>
   </si>
 </sst>
 </file>
@@ -366,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -389,52 +392,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AC007D-B14B-A842-9703-8D72B01CF1C1}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -776,52 +750,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -983,32 +957,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6535EF-9F0E-F043-A0F3-3C3FAFE713F7}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>33</v>
+      </c>
+      <c r="B2" s="6">
+        <v>100</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4342D61E-416B-334D-8110-B11DC03C9D3C}">
           <x14:formula1>
             <xm:f>Help!$T$2:$T$4</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Region" error="Pick a valid region." promptTitle="Region:" prompt="You can mix diferent regions in the same spreadsheet." xr:uid="{143CDC85-D20E-8A47-B1A0-052E043B749F}">
+          <x14:formula1>
+            <xm:f>Help!$C$2:$C$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1048,65 +1046,65 @@
     <col min="20" max="20" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
     </row>

--- a/input_sap.xlsx
+++ b/input_sap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carvaa/aws/code/ProposalCalculator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravanini/WorkDocs/workspace/SapSizerCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF35C5AD-1D5C-7B4B-A7E6-A0C259585335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757657AA-4378-AF45-9FDE-914E785EBDBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" activeTab="1" xr2:uid="{6D211BAE-D26B-E74A-B969-920951E188BB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{6D211BAE-D26B-E74A-B969-920951E188BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Servers" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="100">
   <si>
     <t>Description</t>
   </si>
@@ -269,9 +269,6 @@
     <t>DR_INACTIVE</t>
   </si>
   <si>
-    <t>AWS GovCloud (US)</t>
-  </si>
-  <si>
     <t>Canada (Central)</t>
   </si>
   <si>
@@ -318,6 +315,21 @@
   </si>
   <si>
     <t>Data Transfer Out (GB/Month)</t>
+  </si>
+  <si>
+    <t>Africa (Cape Town)</t>
+  </si>
+  <si>
+    <t>AWS GovCloud (US-West)</t>
+  </si>
+  <si>
+    <t>EU (Milan)</t>
+  </si>
+  <si>
+    <t>Middle East (Bahrain)</t>
+  </si>
+  <si>
+    <t>US West (Los Angeles)</t>
   </si>
 </sst>
 </file>
@@ -726,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AC007D-B14B-A842-9703-8D72B01CF1C1}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -801,7 +813,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -836,7 +848,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -959,7 +971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6535EF-9F0E-F043-A0F3-3C3FAFE713F7}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -974,7 +986,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>3</v>
@@ -1016,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF15F124-54D9-9B4D-8D5F-51948E11FFE8}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1116,7 +1128,7 @@
         <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1175,7 +1187,7 @@
         <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1228,7 +1240,7 @@
         <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -1254,7 +1266,7 @@
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="H5">
         <v>500</v>
@@ -1274,7 +1286,7 @@
         <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="H6">
         <v>500</v>
@@ -1283,7 +1295,7 @@
         <v>42</v>
       </c>
       <c r="S6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -1291,10 +1303,10 @@
         <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -1302,10 +1314,10 @@
         <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -1313,7 +1325,7 @@
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s">
         <v>43</v>
@@ -1324,7 +1336,7 @@
         <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="S10" t="s">
         <v>44</v>
@@ -1335,7 +1347,7 @@
         <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="S11" t="s">
         <v>45</v>
@@ -1343,7 +1355,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="S12" t="s">
         <v>46</v>
@@ -1351,7 +1363,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s">
         <v>47</v>
@@ -1359,7 +1371,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s">
         <v>48</v>
@@ -1367,37 +1379,57 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>85</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/input_sap.xlsx
+++ b/input_sap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravanini/WorkDocs/workspace/SapSizerCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757657AA-4378-AF45-9FDE-914E785EBDBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C30770E-3C0B-7449-880A-170D12DF6D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{6D211BAE-D26B-E74A-B969-920951E188BB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13900" activeTab="1" xr2:uid="{6D211BAE-D26B-E74A-B969-920951E188BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Servers" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
   <si>
     <t>Description</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>US West (Los Angeles)</t>
+  </si>
+  <si>
+    <t>Elastic File System (in GB)</t>
   </si>
 </sst>
 </file>
@@ -738,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AC007D-B14B-A842-9703-8D72B01CF1C1}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -969,19 +972,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6535EF-9F0E-F043-A0F3-3C3FAFE713F7}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -991,8 +995,11 @@
       <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -1001,6 +1008,9 @@
       </c>
       <c r="C2" s="6" t="s">
         <v>67</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/input_sap.xlsx
+++ b/input_sap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravanini/WorkDocs/workspace/SapSizerCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carvaa/aws/code/SapSizerJDBC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C30770E-3C0B-7449-880A-170D12DF6D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EACA30A-9DC9-0B4A-BA28-84214E23EC8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13900" activeTab="1" xr2:uid="{6D211BAE-D26B-E74A-B969-920951E188BB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{6D211BAE-D26B-E74A-B969-920951E188BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Servers" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,25 @@
     <sheet name="Help" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Servers!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Servers!$A$1:$Q$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="104">
   <si>
     <t>Description</t>
   </si>
@@ -71,9 +77,6 @@
     <t>Archive Logs/Local Backup(GB)</t>
   </si>
   <si>
-    <t>S3 Backup(GB)</t>
-  </si>
-  <si>
     <t>Operating System</t>
   </si>
   <si>
@@ -287,12 +290,6 @@
     <t>South America (Sao Paulo)</t>
   </si>
   <si>
-    <t>HANA</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
     <t>Asia Pacific (Hong Kong)</t>
   </si>
   <si>
@@ -330,6 +327,24 @@
   </si>
   <si>
     <t>US West (Los Angeles)</t>
+  </si>
+  <si>
+    <t>Object Storage(GB)</t>
+  </si>
+  <si>
+    <t>Object Storage Type</t>
+  </si>
+  <si>
+    <t>S3 Standard</t>
+  </si>
+  <si>
+    <t>S3 IA</t>
+  </si>
+  <si>
+    <t>Glacier</t>
+  </si>
+  <si>
+    <t>APP 100</t>
   </si>
   <si>
     <t>Elastic File System (in GB)</t>
@@ -739,19 +754,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AC007D-B14B-A842-9703-8D72B01CF1C1}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="13.83203125" customWidth="1"/>
@@ -759,12 +774,12 @@
     <col min="11" max="11" width="8.1640625" customWidth="1"/>
     <col min="12" max="12" width="15.33203125" customWidth="1"/>
     <col min="13" max="13" width="18.5" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" customWidth="1"/>
-    <col min="15" max="15" width="12.5" customWidth="1"/>
-    <col min="16" max="16" width="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.1640625" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
+    <col min="17" max="17" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -805,121 +820,101 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2">
-        <v>8000</v>
-      </c>
-      <c r="G2">
-        <v>32</v>
+        <v>4000</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>500</v>
+      </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L2">
         <v>100</v>
       </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
       <c r="O2" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="P2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3">
-        <v>100</v>
-      </c>
-      <c r="O3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{2D5B0E66-5E29-7647-B972-C41B3DAA92EE}"/>
+  <autoFilter ref="A1:Q1" xr:uid="{2D5B0E66-5E29-7647-B972-C41B3DAA92EE}"/>
   <dataConsolidate/>
-  <dataValidations count="10">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Instance/Server Description" error="Add a unique name to the instance/server between 1 and 50 characters." promptTitle="Instance/Server Description:" prompt="Add a unique name to the instance/server." sqref="A1:A1048576" xr:uid="{863BF43A-4294-8E42-810F-B1A0C250D1E3}">
+  <dataValidations count="11">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="CPU" error="Use numeric value, and fill SAPS or CPU, never fill both fields." promptTitle="CPU:" prompt="Inform the number os vCPUs required by this server/instance." sqref="F1 F3:F1048576" xr:uid="{C726B88D-E38F-3C4C-AA82-37EEBDFCAB06}">
+      <formula1>ISBLANK(E1)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="CPU" error="Use numeric value, and fill SAPS or CPU, never fill both fields." promptTitle="CPU:" prompt="Inform the number os vCPUs required by this server/instance." sqref="E2" xr:uid="{ACCEEDE3-A3C5-BC4A-A2D7-00DD1C0832C4}">
+      <formula1>ISBLANK(#REF!)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SAPS" error="Use numeric value, and fill SAPS or CPU, never fill both fields." promptTitle="SAPS:" prompt="Inform the number of SAPS required by this server/instance." sqref="E1 E3:E1048576" xr:uid="{EB600249-6D7E-3947-87DF-EA49F77FC82D}">
+      <formula1>ISBLANK(F1)</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Instance/Server Description" error="Add a unique name to the instance/server between 1 and 50 characters." promptTitle="Instance/Server Description:" prompt="Add a unique name to the instance/server." sqref="A1:A1048576" xr:uid="{DB30D89B-6338-2B4F-9CCD-6D8DFCB60B99}">
       <formula1>1</formula1>
       <formula2>50</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Memory" error="Fill a whole number between 1 and 50000." promptTitle="Memory:" prompt="Inform how much memory (in GB) you server/instances needs." sqref="G1:G1048576" xr:uid="{4414A35C-1214-7744-A1EF-E7345D0BE23D}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Memory" error="Fill a whole number between 1 and 50000." promptTitle="Memory:" prompt="Inform how much memory (in GB) you server/instances needs." sqref="G1:G1048576" xr:uid="{CCBED8A5-063E-3649-AB25-2A7114722DC8}">
       <formula1>1</formula1>
       <formula2>50000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Storage" error="Use any number between 1 and 100000." promptTitle="Storage:" prompt="The ammount of SSD block storage required by this server/instance." sqref="I1:I1048576" xr:uid="{B7506572-A875-D945-95D2-46B22816C0B0}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Storage" error="Use any number between 1 and 100000." promptTitle="Storage:" prompt="The ammount of SSD block storage required by this server/instance." sqref="I1:I1048576" xr:uid="{7BFF69B0-44F6-D047-8537-C1C6167436AA}">
       <formula1>1</formula1>
       <formula2>100000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Snapshot" error="Use any number between 0 and 50000." promptTitle="Snapshot" prompt="Snapshot storage used to protect your block storages. For app servers, this is usually a good backup strategy. For databases, you can also fill the S3 Backup field to store the backups taken with you favorite backup tool." sqref="L1:L1048576" xr:uid="{B1CFE893-CD73-9945-BB7E-79DEE626CF3C}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Snapshot" error="Use any number between 0 and 50000." promptTitle="Snapshot" prompt="Snapshot storage used to protect your block storages. For app servers, this is usually a good backup strategy. For databases, you can also fill the S3 Backup field to store the backups taken with you favorite backup tool." sqref="L1:L1048576" xr:uid="{A7920140-7302-6740-B9FE-BD724DF8B9B1}">
       <formula1>0</formula1>
       <formula2>50000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Arquive Logs / Local Backup" prompt="This is optional, and is commonly used as a temporary disk used for databases during the archive logs process, or to take a full backup before copying those files to S3. For HANA, you can leave this field blank and this tool will fill it with the size rec" sqref="M1:M1048576" xr:uid="{8183C2D7-C484-694D-B55D-ED7B8B505762}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Arquive Logs / Local Backup" prompt="This is optional, and is commonly used as a temporary disk used for databases during the archive logs process, or to take a full backup before copying those files to S3. For HANA, you can leave this field blank and this tool will fill it with the size rec" sqref="M1:M1048576" xr:uid="{9162A1C7-99B8-5243-A609-F40BD7D9688D}">
       <formula1>0</formula1>
       <formula2>50000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="S3 Backup" error="Use any numeric value between 0 and 50000 GB." promptTitle="S3 Backup" prompt="This field is optional and is commonly used by databases. The ammount of storage required will depend on your retention policy." sqref="N1:N1048576" xr:uid="{07FC0280-7C2A-2348-B5C5-C681E45A9BCE}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Object Storage" error="Use any numeric value between 0 and 50000 GB." promptTitle="Object Storage" prompt="This field is optional and is commonly used by databases. The ammount of storage required will depend on your retention policy." sqref="N1:N1048576" xr:uid="{D4F77248-9D04-ED4B-8022-E6D7AF0D3184}">
       <formula1>0</formula1>
       <formula2>500000</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="CPU" error="Use numeric value, and fill SAPS or CPU, never fill both fields." promptTitle="CPU:" prompt="Inform the number os vCPUs required by this server/instance." sqref="F1:F1048576" xr:uid="{5A4BEECC-08B8-CE4C-B3FF-38225C559446}">
-      <formula1>ISBLANK(E1)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SAPS" error="Use numeric value, and fill SAPS or CPU, never fill both fields." promptTitle="SAPS:" prompt="Inform the number of SAPS required by this server/instance." sqref="E1:E1048576" xr:uid="{515E0294-F776-B947-A6D4-4C027A523B1C}">
-      <formula1>ISBLANK(F1)</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Monthly Utilization" error="Use any number between 1% and 100%." promptTitle="Monthly Utilization:" prompt="Example: If you intend to keep your instances running 12 hours a day, use 50%. For 12 hours a day, 5 days a week, use 36%, etc. If you are using less than 100%, remember to use On Demand (not reserved)." sqref="H1:H1048576" xr:uid="{6BFFFB76-C3FC-0942-A352-A94D1FC2C353}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Monthly Utilization" error="Use any number between 1% and 100%." promptTitle="Monthly Utilization:" prompt="Example: If you intend to keep your instances running 12 hours a day, use 50%. For 12 hours a day, 5 days a week, use 36%, etc. If you are using less than 100%, remember to use On Demand (not reserved)." sqref="H1:H1048576" xr:uid="{25187173-80AD-C34C-B4A1-41205CF8AA1A}">
       <formula1>0.01</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IOPS" error="Fill this field only if you are using Provisioned IOPS" promptTitle="IOPS" prompt="If you are using Provisioned IOPS as the volume type, inform here the required IOPS." sqref="K1:K1048576" xr:uid="{2F644B57-DE7F-0546-BF88-CF4D8F557654}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IOPS" error="Fill this field only if you are using Provisioned IOPS" promptTitle="IOPS" prompt="If you are using Provisioned IOPS as the volume type, inform here the required IOPS." sqref="K1:K1048576" xr:uid="{BDF816CD-2C99-2D45-90E1-64BAD7E89FD5}">
       <formula1>(J1="Provisioned IOPS")</formula1>
     </dataValidation>
   </dataValidations>
@@ -927,42 +922,48 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Volume Type" error="Pick a valid volume type." promptTitle="Volume Type:" prompt="General Purpose is SSD based and works for any instance type, including SAP HANA, but for HANA, keep in mind that striping volumes will be necessary to achieve the minimal performance. If you use PIOS, there is no need for striping volumes." xr:uid="{728E65A1-AEE1-4C40-99B2-AF3C56A046CF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Volume Type" error="Pick a valid volume type." promptTitle="Volume Type:" prompt="General Purpose is SSD based and works for any instance type, including SAP HANA, but for HANA, keep in mind that striping volumes will be necessary to achieve the minimal performance. If you use PIOS, there is no need for striping volumes." xr:uid="{D66EE974-F014-7C41-92E9-1E4FD0E490D9}">
           <x14:formula1>
             <xm:f>Help!$I$2:$I$3</xm:f>
           </x14:formula1>
           <xm:sqref>J1:J1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SAP Instance Type" error="Pick a valid SAP Instance Type!" promptTitle="SAP Instance Type:" prompt="APPS: Any SAP application server or netweaver_x000a_ANY_DB: Oracle, SQL Server, ASE, DB2 or MaxDB_x000a_HANA_OLTP: HANA for transactional systems, like ECC or S/4HANA_x000a_HANA_OLAP: HANA for BI systems, like SAP Business Warehouse (BW)_x000a_HANA_B1: HANA for B1" xr:uid="{19CA3FE2-0D3C-1545-B4BB-BE62BCB19BB5}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SAP Instance Type" error="Pick a valid SAP Instance Type!" promptTitle="SAP Instance Type:" prompt="APPS: Any SAP application server or netweaver_x000a_ANY_DB: Oracle, SQL Server, ASE, DB2 or MaxDB_x000a_HANA_OLTP: HANA for transactional systems, like ECC or S/4HANA_x000a_HANA_OLAP: HANA for BI systems, like SAP Business Warehouse (BW)_x000a_HANA_B1: HANA for B1" xr:uid="{86C60A0A-F897-604A-89C7-00F50577B961}">
           <x14:formula1>
             <xm:f>Help!$R$2:$R$6</xm:f>
           </x14:formula1>
           <xm:sqref>C1:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OS" prompt="Pick a valid OS. If you are using an Oracle Database, SAP and Oracle require the use of Oracle Linux in order to provide support. In this case, you can use BYOL and buy the Oracle Linux licenses from Oracle or from AWS Marketplace." xr:uid="{51F28ABA-FD1F-7442-8261-FB8AA7E62C13}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OS" prompt="Pick a valid OS. If you are using an Oracle Database, SAP and Oracle require the use of Oracle Linux in order to provide support. In this case, you can use BYOL and buy the Oracle Linux licenses from Oracle or from AWS Marketplace." xr:uid="{A62A490F-4EFB-B541-902B-F2AD13A69630}">
           <x14:formula1>
             <xm:f>Help!$Q$2:$Q$5</xm:f>
           </x14:formula1>
-          <xm:sqref>O1:O1048576</xm:sqref>
+          <xm:sqref>P1:P1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Environment" error="Pick one of the valid environments" promptTitle="Environment:" prompt="DEV, QA, SANDBOX, TEST, NON_PROD: Bigger selection of instances for HANA_x000a_PROD, HA, DR_FULL: Smaller selection of instances for HANA_x000a_DR_OPTIMIZED: Capacity (CPU/Mem) will be 1/4 of the desired_x000a_DR_INACTIVE: Instances will be turned off" xr:uid="{BF03DEFB-BF5B-CA4E-8393-AE8B61B8ACCC}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Environment" error="Pick one of the valid environments" promptTitle="Environment:" prompt="DEV, QA, SANDBOX, TEST, NON_PROD: Bigger selection of instances for HANA_x000a_PROD, HA, DR_FULL: Smaller selection of instances for HANA_x000a_DR_OPTIMIZED: Capacity (CPU/Mem) will be 1/4 of the desired_x000a_DR_INACTIVE: Instances will be turned off" xr:uid="{1CE27EF2-8E23-F34C-9F37-205A9247E984}">
           <x14:formula1>
             <xm:f>Help!$B$2:$B$11</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Region" error="Pick a valid region." promptTitle="Region:" prompt="You can mix diferent regions in the same spreadsheet." xr:uid="{78806915-3BF8-0649-9A1B-F010EFC653FA}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Region" error="Pick a valid region." promptTitle="Region:" prompt="You can mix diferent regions in the same spreadsheet." xr:uid="{148E28CF-4585-184E-8FCF-FE36A3BEBE71}">
           <x14:formula1>
             <xm:f>Help!$C$2:$C$32</xm:f>
           </x14:formula1>
           <xm:sqref>D1:D1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Billing Option" prompt="You can mix different B. Options in the same price estimation. Reserved instances usually fits best for SAP Workloads. For HANA, might be a good idea to work with convertible reservations. For app servers, use regular reservations if that works for you" xr:uid="{1D50BE0B-EBE7-FE4C-AF58-F9A22D160F06}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Billing Option" prompt="You can mix different B. Options in the same price estimation. Reserved instances usually fits best for SAP Workloads. For HANA, might be a good idea to work with convertible reservations. For app servers, use regular reservations if that works for you" xr:uid="{E1D1FE69-59C0-0647-8CE1-40F56C56D10E}">
           <x14:formula1>
             <xm:f>Help!$S$2:$S$14</xm:f>
           </x14:formula1>
-          <xm:sqref>P1:P1048576</xm:sqref>
+          <xm:sqref>Q1:Q1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Object Storage Type" error="Pick one of the value of the list!" promptTitle="Object Storage Type" prompt="Pick one of the value of the list!" xr:uid="{E8882C07-92C0-BA4B-87E5-0508EA50EAE4}">
+          <x14:formula1>
+            <xm:f>Help!$U$2:$U$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>O1:O1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -974,40 +975,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6535EF-9F0E-F043-A0F3-3C3FAFE713F7}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D2" s="6">
         <v>0</v>
@@ -1038,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF15F124-54D9-9B4D-8D5F-51948E11FFE8}">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1066,9 +1067,10 @@
     <col min="18" max="18" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1081,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>5</v>
@@ -1088,7 +1090,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>8</v>
@@ -1103,42 +1105,45 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="N1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="Q1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1156,7 +1161,7 @@
         <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -1165,39 +1170,42 @@
         <v>50</v>
       </c>
       <c r="L2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" t="s">
         <v>57</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>58</v>
       </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1209,7 +1217,7 @@
         <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J3">
         <v>1000</v>
@@ -1218,228 +1226,234 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="s">
         <v>62</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>63</v>
       </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4">
         <v>100</v>
       </c>
       <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>35</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>36</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>37</v>
       </c>
-      <c r="T4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H5">
         <v>500</v>
       </c>
       <c r="Q5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" t="s">
         <v>39</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>40</v>
       </c>
-      <c r="S5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6">
         <v>500</v>
       </c>
       <c r="R6" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="S7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="S8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="S9" t="s">
         <v>42</v>
       </c>
-      <c r="S6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>73</v>
-      </c>
-      <c r="S7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="S8" t="s">
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="S10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s">
-        <v>77</v>
-      </c>
-      <c r="S9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="S11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
         <v>78</v>
       </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="S12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
         <v>79</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
         <v>80</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
         <v>81</v>
       </c>
-      <c r="S14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
